--- a/hydroelectric_power/TD/TD2/Optimisation_spreadsheet.xlsx
+++ b/hydroelectric_power/TD/TD2/Optimisation_spreadsheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17016" windowHeight="5772" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17016" windowHeight="5772"/>
   </bookViews>
   <sheets>
     <sheet name="tunnel" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
   <si>
     <t>Hyraulic loss coef</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Energy loss [m]</t>
   </si>
   <si>
-    <t>Energy loss [kW.h]</t>
-  </si>
-  <si>
     <t>Cost of th lost energy</t>
   </si>
   <si>
@@ -46,13 +43,109 @@
   </si>
   <si>
     <t>Energy loss [kW,h]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Investment </t>
+  </si>
+  <si>
+    <t>Income</t>
+  </si>
+  <si>
+    <t>Lost</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operational costst </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discount rate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference period </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Construction time </t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>EUR/m</t>
+  </si>
+  <si>
+    <t>Eur/year</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>Financial evaluation pressure tunnel</t>
+  </si>
+  <si>
+    <t>TUNNEL</t>
+  </si>
+  <si>
+    <t>PENSTOCK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NPV income </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NPV lost production </t>
+  </si>
+  <si>
+    <t>NPV sum</t>
+  </si>
+  <si>
+    <t>Financial items</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operational osts </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lost production </t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Operational year</t>
+  </si>
+  <si>
+    <t>NPV:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outcome: Operation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sum of the outcome </t>
+  </si>
+  <si>
+    <t>Nt outcome(out-in)</t>
+  </si>
+  <si>
+    <t>NPV sum (net out+lost prod)</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outcome: Investment </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,16 +161,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -85,17 +192,72 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -377,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A7:I66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -388,148 +550,1084 @@
     <col min="1" max="1" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+    </row>
+    <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>4</v>
       </c>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>2.61718761663107E-3</v>
-      </c>
-      <c r="C2">
-        <f>1435.36*A2-615.646</f>
+      <c r="B9">
+        <v>2.8072238778343601E-3</v>
+      </c>
+      <c r="C9">
+        <f>1435.36*A9-615.646</f>
         <v>5125.7939999999999</v>
       </c>
-      <c r="D2">
-        <f>B2*7100</f>
-        <v>18.582032078080598</v>
-      </c>
-      <c r="E2">
-        <f>1110554.352*D2</f>
-        <v>20636356.593316011</v>
-      </c>
-      <c r="F2">
-        <f>E2*0.07</f>
-        <v>1444544.9615321208</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="D9">
+        <f>B9*7100</f>
+        <v>19.931289532623957</v>
+      </c>
+      <c r="E9">
+        <f>1110554.352*D9/1000</f>
+        <v>22134.780331427581</v>
+      </c>
+      <c r="F9">
+        <f>E9*0.07</f>
+        <v>1549.4346231999307</v>
+      </c>
+      <c r="G9" s="14">
+        <f>B61</f>
+        <v>953.60654047160722</v>
+      </c>
+      <c r="H9" s="14">
+        <f>B62</f>
+        <v>14810.473545380462</v>
+      </c>
+      <c r="I9" s="14">
+        <f>B66</f>
+        <v>18926.351794532762</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>4.5</v>
       </c>
-      <c r="B3">
-        <v>1.47363054644184E-3</v>
-      </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C6" si="0">1435.36*A3-615.646</f>
+      <c r="B10">
+        <v>1.5793458469923001E-3</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ref="C10:C13" si="0">1435.36*A10-615.646</f>
         <v>5843.4740000000002</v>
       </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D6" si="1">B3*7100</f>
-        <v>10.462776879737063</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E6" si="2">1110554.352*D3</f>
-        <v>11619482.397796975</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F6" si="3">E3*0.07</f>
-        <v>813363.76784578839</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="D10">
+        <f t="shared" ref="D10:D13" si="1">B10*7100</f>
+        <v>11.213355513645331</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ref="E10:E13" si="2">1110554.352*D10/1000</f>
+        <v>12453.040766202017</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ref="F10:F13" si="3">E10*0.07</f>
+        <v>871.71285363414131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>5</v>
       </c>
-      <c r="B4">
-        <v>8.8309190285313797E-4</v>
-      </c>
-      <c r="C4">
+      <c r="B11">
+        <v>9.4586754061144198E-4</v>
+      </c>
+      <c r="C11">
         <f t="shared" si="0"/>
         <v>6561.1539999999995</v>
       </c>
-      <c r="D4">
+      <c r="D11">
         <f t="shared" si="1"/>
-        <v>6.26995251025728</v>
-      </c>
-      <c r="E4">
+        <v>6.7156595383412379</v>
+      </c>
+      <c r="E11">
         <f t="shared" si="2"/>
-        <v>6963123.0470995465</v>
-      </c>
-      <c r="F4">
+        <v>7458.1049268551724</v>
+      </c>
+      <c r="F11">
         <f t="shared" si="3"/>
-        <v>487418.61329696828</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5">
+        <v>522.06734487986216</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>5.5</v>
       </c>
-      <c r="B5">
-        <v>5.5666716585562898E-4</v>
-      </c>
-      <c r="C5">
+      <c r="B12">
+        <v>5.9603369827353095E-4</v>
+      </c>
+      <c r="C12">
         <f t="shared" si="0"/>
         <v>7278.8339999999998</v>
       </c>
-      <c r="D5">
+      <c r="D12">
         <f t="shared" si="1"/>
-        <v>3.9523368775749659</v>
-      </c>
-      <c r="E5">
+        <v>4.2318392577420694</v>
+      </c>
+      <c r="E12">
         <f t="shared" si="2"/>
-        <v>4389284.9199609691</v>
-      </c>
-      <c r="F5">
+        <v>4699.6875046499044</v>
+      </c>
+      <c r="F12">
         <f t="shared" si="3"/>
-        <v>307249.94439726789</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6">
+        <v>328.97812532549335</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>6</v>
       </c>
-      <c r="B6">
-        <v>3.6595246333360001E-4</v>
-      </c>
-      <c r="C6">
+      <c r="B13">
+        <v>3.9182834044490397E-4</v>
+      </c>
+      <c r="C13">
         <f t="shared" si="0"/>
         <v>7996.5140000000001</v>
       </c>
-      <c r="D6">
+      <c r="D13">
         <f t="shared" si="1"/>
-        <v>2.59826248966856</v>
-      </c>
-      <c r="E6">
+        <v>2.7819812171588181</v>
+      </c>
+      <c r="E13">
         <f t="shared" si="2"/>
-        <v>2885511.7155397744</v>
-      </c>
-      <c r="F6">
+        <v>3089.5413478979822</v>
+      </c>
+      <c r="F13">
         <f t="shared" si="3"/>
-        <v>201985.82008778423</v>
+        <v>216.26789435285878</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+    </row>
+    <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>8.5651017999755104E-4</v>
+      </c>
+      <c r="C16">
+        <f>1425.36*A16-615.646</f>
+        <v>5085.7939999999999</v>
+      </c>
+      <c r="D16">
+        <f>B16*71^2</f>
+        <v>4.3176678173676546</v>
+      </c>
+      <c r="E16">
+        <f>1110554.352*D16/1000</f>
+        <v>4795.0047850679894</v>
+      </c>
+      <c r="F16">
+        <f>E16*0.07</f>
+        <v>335.65033495475927</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>4.5</v>
+      </c>
+      <c r="B17">
+        <v>8.1011708129068605E-4</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ref="C17:C19" si="4">1425.36*A17-615.646</f>
+        <v>5798.4740000000002</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ref="D17:D19" si="5">B17*71^2</f>
+        <v>4.0838002067863481</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ref="E17:E19" si="6">1110554.352*D17/1000</f>
+        <v>4535.2820923450781</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ref="F17:F19" si="7">E17*0.07</f>
+        <v>317.46974646415549</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>7.8928667266953199E-4</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="4"/>
+        <v>6511.1539999999995</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="5"/>
+        <v>3.9787941169271108</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="6"/>
+        <v>4418.6671222653995</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="7"/>
+        <v>309.30669855857798</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>5.5</v>
+      </c>
+      <c r="B19">
+        <v>7.7974690230116499E-4</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="4"/>
+        <v>7223.8339999999998</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="5"/>
+        <v>3.9307041345001728</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="6"/>
+        <v>4365.2605829935601</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="7"/>
+        <v>305.56824080954925</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="5">
+        <v>4</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="5">
+        <v>1444.5449615321209</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="5">
+        <v>5125.7939999999999</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="6">
+        <f>0.01*B24</f>
+        <v>51.257939999999998</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="6">
+        <f>0.6*B24</f>
+        <v>3075.4764</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="6">
+        <v>20</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="6">
+        <v>4</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+    </row>
+    <row r="32" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="10">
+        <f>B24/$B29</f>
+        <v>1281.4485</v>
+      </c>
+      <c r="B33" s="10">
+        <v>0</v>
+      </c>
+      <c r="C33" s="10">
+        <v>0</v>
+      </c>
+      <c r="D33" s="10">
+        <v>0</v>
+      </c>
+      <c r="E33" s="10">
+        <v>1</v>
+      </c>
+      <c r="F33" s="10"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="10">
+        <f>B24/B29</f>
+        <v>1281.4485</v>
+      </c>
+      <c r="B34" s="10">
+        <v>0</v>
+      </c>
+      <c r="C34" s="10">
+        <v>0</v>
+      </c>
+      <c r="D34" s="10">
+        <v>0</v>
+      </c>
+      <c r="E34" s="10">
+        <v>2</v>
+      </c>
+      <c r="F34" s="10"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="10">
+        <f>B24/B29</f>
+        <v>1281.4485</v>
+      </c>
+      <c r="B35" s="10">
+        <v>0</v>
+      </c>
+      <c r="C35" s="10">
+        <v>0</v>
+      </c>
+      <c r="D35" s="10">
+        <v>0</v>
+      </c>
+      <c r="E35" s="10">
+        <v>3</v>
+      </c>
+      <c r="F35" s="10"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="10">
+        <f>B24/B29</f>
+        <v>1281.4485</v>
+      </c>
+      <c r="B36" s="10">
+        <v>0</v>
+      </c>
+      <c r="C36" s="10">
+        <v>0</v>
+      </c>
+      <c r="D36" s="10">
+        <v>0</v>
+      </c>
+      <c r="E36" s="10">
+        <v>4</v>
+      </c>
+      <c r="F36" s="10"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="10">
+        <v>0</v>
+      </c>
+      <c r="B37" s="10">
+        <f>$B$25</f>
+        <v>51.257939999999998</v>
+      </c>
+      <c r="C37" s="10">
+        <v>0</v>
+      </c>
+      <c r="D37" s="10">
+        <f>$B$23</f>
+        <v>1444.5449615321209</v>
+      </c>
+      <c r="E37" s="10">
+        <v>5</v>
+      </c>
+      <c r="F37" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="10">
+        <v>0</v>
+      </c>
+      <c r="B38" s="10">
+        <f t="shared" ref="B38:B56" si="8">$B$25</f>
+        <v>51.257939999999998</v>
+      </c>
+      <c r="C38" s="10">
+        <v>0</v>
+      </c>
+      <c r="D38" s="10">
+        <f t="shared" ref="D38:D56" si="9">$B$23</f>
+        <v>1444.5449615321209</v>
+      </c>
+      <c r="E38" s="10">
+        <v>6</v>
+      </c>
+      <c r="F38" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="10">
+        <v>0</v>
+      </c>
+      <c r="B39" s="10">
+        <f t="shared" si="8"/>
+        <v>51.257939999999998</v>
+      </c>
+      <c r="C39" s="10">
+        <v>0</v>
+      </c>
+      <c r="D39" s="10">
+        <f t="shared" si="9"/>
+        <v>1444.5449615321209</v>
+      </c>
+      <c r="E39" s="10">
+        <v>7</v>
+      </c>
+      <c r="F39" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="10">
+        <v>0</v>
+      </c>
+      <c r="B40" s="10">
+        <f t="shared" si="8"/>
+        <v>51.257939999999998</v>
+      </c>
+      <c r="C40" s="10">
+        <v>0</v>
+      </c>
+      <c r="D40" s="10">
+        <f t="shared" si="9"/>
+        <v>1444.5449615321209</v>
+      </c>
+      <c r="E40" s="10">
+        <v>8</v>
+      </c>
+      <c r="F40" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="10">
+        <v>0</v>
+      </c>
+      <c r="B41" s="10">
+        <f t="shared" si="8"/>
+        <v>51.257939999999998</v>
+      </c>
+      <c r="C41" s="10">
+        <v>0</v>
+      </c>
+      <c r="D41" s="10">
+        <f t="shared" si="9"/>
+        <v>1444.5449615321209</v>
+      </c>
+      <c r="E41" s="10">
+        <v>9</v>
+      </c>
+      <c r="F41" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="10">
+        <v>0</v>
+      </c>
+      <c r="B42" s="10">
+        <f t="shared" si="8"/>
+        <v>51.257939999999998</v>
+      </c>
+      <c r="C42" s="10">
+        <v>0</v>
+      </c>
+      <c r="D42" s="10">
+        <f t="shared" si="9"/>
+        <v>1444.5449615321209</v>
+      </c>
+      <c r="E42" s="10">
+        <v>10</v>
+      </c>
+      <c r="F42" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="10">
+        <v>0</v>
+      </c>
+      <c r="B43" s="10">
+        <f t="shared" si="8"/>
+        <v>51.257939999999998</v>
+      </c>
+      <c r="C43" s="10">
+        <v>0</v>
+      </c>
+      <c r="D43" s="10">
+        <f t="shared" si="9"/>
+        <v>1444.5449615321209</v>
+      </c>
+      <c r="E43" s="10">
+        <v>11</v>
+      </c>
+      <c r="F43" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="10">
+        <v>0</v>
+      </c>
+      <c r="B44" s="10">
+        <f t="shared" si="8"/>
+        <v>51.257939999999998</v>
+      </c>
+      <c r="C44" s="10">
+        <v>0</v>
+      </c>
+      <c r="D44" s="10">
+        <f t="shared" si="9"/>
+        <v>1444.5449615321209</v>
+      </c>
+      <c r="E44" s="10">
+        <v>12</v>
+      </c>
+      <c r="F44" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="10">
+        <v>0</v>
+      </c>
+      <c r="B45" s="10">
+        <f t="shared" si="8"/>
+        <v>51.257939999999998</v>
+      </c>
+      <c r="C45" s="10">
+        <v>0</v>
+      </c>
+      <c r="D45" s="10">
+        <f t="shared" si="9"/>
+        <v>1444.5449615321209</v>
+      </c>
+      <c r="E45" s="10">
+        <v>13</v>
+      </c>
+      <c r="F45" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="10">
+        <v>0</v>
+      </c>
+      <c r="B46" s="10">
+        <f t="shared" si="8"/>
+        <v>51.257939999999998</v>
+      </c>
+      <c r="C46" s="10">
+        <v>0</v>
+      </c>
+      <c r="D46" s="10">
+        <f t="shared" si="9"/>
+        <v>1444.5449615321209</v>
+      </c>
+      <c r="E46" s="10">
+        <v>14</v>
+      </c>
+      <c r="F46" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="10">
+        <v>0</v>
+      </c>
+      <c r="B47" s="10">
+        <f t="shared" si="8"/>
+        <v>51.257939999999998</v>
+      </c>
+      <c r="C47" s="10">
+        <v>0</v>
+      </c>
+      <c r="D47" s="10">
+        <f t="shared" si="9"/>
+        <v>1444.5449615321209</v>
+      </c>
+      <c r="E47" s="10">
+        <v>15</v>
+      </c>
+      <c r="F47" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="10">
+        <v>0</v>
+      </c>
+      <c r="B48" s="10">
+        <f t="shared" si="8"/>
+        <v>51.257939999999998</v>
+      </c>
+      <c r="C48" s="10">
+        <v>0</v>
+      </c>
+      <c r="D48" s="10">
+        <f t="shared" si="9"/>
+        <v>1444.5449615321209</v>
+      </c>
+      <c r="E48" s="10">
+        <v>16</v>
+      </c>
+      <c r="F48" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="10">
+        <v>0</v>
+      </c>
+      <c r="B49" s="10">
+        <f t="shared" si="8"/>
+        <v>51.257939999999998</v>
+      </c>
+      <c r="C49" s="10">
+        <v>0</v>
+      </c>
+      <c r="D49" s="10">
+        <f t="shared" si="9"/>
+        <v>1444.5449615321209</v>
+      </c>
+      <c r="E49" s="10">
+        <v>17</v>
+      </c>
+      <c r="F49" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="10">
+        <v>0</v>
+      </c>
+      <c r="B50" s="10">
+        <f t="shared" si="8"/>
+        <v>51.257939999999998</v>
+      </c>
+      <c r="C50" s="10">
+        <v>0</v>
+      </c>
+      <c r="D50" s="10">
+        <f t="shared" si="9"/>
+        <v>1444.5449615321209</v>
+      </c>
+      <c r="E50" s="10">
+        <v>18</v>
+      </c>
+      <c r="F50" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="10">
+        <v>0</v>
+      </c>
+      <c r="B51" s="10">
+        <f t="shared" si="8"/>
+        <v>51.257939999999998</v>
+      </c>
+      <c r="C51" s="10">
+        <v>0</v>
+      </c>
+      <c r="D51" s="10">
+        <f t="shared" si="9"/>
+        <v>1444.5449615321209</v>
+      </c>
+      <c r="E51" s="10">
+        <v>19</v>
+      </c>
+      <c r="F51" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="10">
+        <v>0</v>
+      </c>
+      <c r="B52" s="10">
+        <f t="shared" si="8"/>
+        <v>51.257939999999998</v>
+      </c>
+      <c r="C52" s="10">
+        <v>0</v>
+      </c>
+      <c r="D52" s="10">
+        <f t="shared" si="9"/>
+        <v>1444.5449615321209</v>
+      </c>
+      <c r="E52" s="10">
+        <v>20</v>
+      </c>
+      <c r="F52" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="10">
+        <v>0</v>
+      </c>
+      <c r="B53" s="10">
+        <f t="shared" si="8"/>
+        <v>51.257939999999998</v>
+      </c>
+      <c r="C53" s="10">
+        <v>0</v>
+      </c>
+      <c r="D53" s="10">
+        <f t="shared" si="9"/>
+        <v>1444.5449615321209</v>
+      </c>
+      <c r="E53" s="10">
+        <v>21</v>
+      </c>
+      <c r="F53" s="10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="10">
+        <v>0</v>
+      </c>
+      <c r="B54" s="10">
+        <f t="shared" si="8"/>
+        <v>51.257939999999998</v>
+      </c>
+      <c r="C54" s="10">
+        <v>0</v>
+      </c>
+      <c r="D54" s="10">
+        <f t="shared" si="9"/>
+        <v>1444.5449615321209</v>
+      </c>
+      <c r="E54" s="10">
+        <v>22</v>
+      </c>
+      <c r="F54" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="10">
+        <v>0</v>
+      </c>
+      <c r="B55" s="10">
+        <f t="shared" si="8"/>
+        <v>51.257939999999998</v>
+      </c>
+      <c r="C55" s="10">
+        <v>0</v>
+      </c>
+      <c r="D55" s="10">
+        <f t="shared" si="9"/>
+        <v>1444.5449615321209</v>
+      </c>
+      <c r="E55" s="10">
+        <v>23</v>
+      </c>
+      <c r="F55" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="10">
+        <v>0</v>
+      </c>
+      <c r="B56" s="10">
+        <f t="shared" si="8"/>
+        <v>51.257939999999998</v>
+      </c>
+      <c r="C56" s="10">
+        <f>B26</f>
+        <v>3075.4764</v>
+      </c>
+      <c r="D56" s="10">
+        <f t="shared" si="9"/>
+        <v>1444.5449615321209</v>
+      </c>
+      <c r="E56" s="10">
+        <v>24</v>
+      </c>
+      <c r="F56" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
+    </row>
+    <row r="59" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B59" s="13">
+        <f>NPV(5%,A33:A36)</f>
+        <v>4543.9529546331005</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B60" s="13">
+        <f>NPV(5%,B33:B36,B37:B56)</f>
+        <v>525.53183499080615</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" s="13">
+        <f>NPV(5%,C33:C36,C37:C55,C56)</f>
+        <v>953.60654047160722</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B62" s="13">
+        <f>NPV(5%,D33:D36,D37:D56)</f>
+        <v>14810.473545380462</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="1"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="11"/>
+    </row>
+    <row r="64" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B64" s="13">
+        <f>B59+B60</f>
+        <v>5069.4847896239062</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B65" s="13">
+        <f>B64-B61</f>
+        <v>4115.8782491522988</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B66" s="13">
+        <f>B65+B62</f>
+        <v>18926.351794532762</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A58:C58"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
@@ -539,30 +1637,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -581,12 +1679,12 @@
         <v>12.639631699392467</v>
       </c>
       <c r="E2">
-        <f>1110554.352*D2</f>
-        <v>14036997.991437459</v>
+        <f>1110554.352*D2/1000</f>
+        <v>14036.99799143746</v>
       </c>
       <c r="F2">
         <f>E2*0.07</f>
-        <v>982589.8594006222</v>
+        <v>982.58985940062223</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -605,12 +1703,12 @@
         <v>9.7207115319213262</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E5" si="2">1110554.352*D3</f>
-        <v>10795378.496311815</v>
+        <f t="shared" ref="E3:E5" si="2">1110554.352*D3/1000</f>
+        <v>10795.378496311816</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F5" si="3">E3*0.07</f>
-        <v>755676.49474182713</v>
+        <v>755.67649474182724</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -630,11 +1728,11 @@
       </c>
       <c r="E4">
         <f t="shared" si="2"/>
-        <v>8726146.6460539382</v>
+        <v>8726.1466460539377</v>
       </c>
       <c r="F4">
         <f t="shared" si="3"/>
-        <v>610830.26522377576</v>
+        <v>610.83026522377565</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -654,11 +1752,11 @@
       </c>
       <c r="E5">
         <f t="shared" si="2"/>
-        <v>7343773.4847210543</v>
+        <v>7343.773484721054</v>
       </c>
       <c r="F5">
         <f t="shared" si="3"/>
-        <v>514064.14393047383</v>
+        <v>514.06414393047385</v>
       </c>
     </row>
   </sheetData>

--- a/hydroelectric_power/TD/TD2/Optimisation_spreadsheet.xlsx
+++ b/hydroelectric_power/TD/TD2/Optimisation_spreadsheet.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="36">
   <si>
     <t>Hyraulic loss coef</t>
   </si>
@@ -82,9 +82,6 @@
   </si>
   <si>
     <t>years</t>
-  </si>
-  <si>
-    <t>Financial evaluation pressure tunnel</t>
   </si>
   <si>
     <t>TUNNEL</t>
@@ -145,7 +142,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,8 +166,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -180,6 +192,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -211,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -252,12 +288,34 @@
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -539,389 +597,661 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A7:I66"/>
+  <dimension ref="A7:AH116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="C14" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" style="16"/>
   </cols>
   <sheetData>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
+      <c r="A7" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
     </row>
     <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="B8" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="23">
         <v>4</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="23">
         <v>2.8072238778343601E-3</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="23">
         <f>1435.36*A9-615.646</f>
         <v>5125.7939999999999</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="23">
         <f>B9*7100</f>
         <v>19.931289532623957</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="23">
         <f>1110554.352*D9/1000</f>
         <v>22134.780331427581</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="23">
         <f>E9*0.07</f>
         <v>1549.4346231999307</v>
       </c>
-      <c r="G9" s="14">
-        <f>B61</f>
+      <c r="G9" s="24">
+        <f>B62</f>
         <v>953.60654047160722</v>
       </c>
-      <c r="H9" s="14">
-        <f>B62</f>
-        <v>14810.473545380462</v>
-      </c>
-      <c r="I9" s="14">
-        <f>B66</f>
-        <v>18926.351794532762</v>
+      <c r="H9" s="25">
+        <f>B63</f>
+        <v>15885.874865992431</v>
+      </c>
+      <c r="I9" s="25">
+        <f>B67</f>
+        <v>20001.753115144729</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" s="23">
         <v>4.5</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="23">
         <v>1.5793458469923001E-3</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="23">
         <f t="shared" ref="C10:C13" si="0">1435.36*A10-615.646</f>
         <v>5843.4740000000002</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="23">
         <f t="shared" ref="D10:D13" si="1">B10*7100</f>
         <v>11.213355513645331</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="23">
         <f t="shared" ref="E10:E13" si="2">1110554.352*D10/1000</f>
         <v>12453.040766202017</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="23">
         <f t="shared" ref="F10:F13" si="3">E10*0.07</f>
         <v>871.71285363414131</v>
       </c>
+      <c r="G10" s="24">
+        <f>I62</f>
+        <v>1087.1242631825985</v>
+      </c>
+      <c r="H10" s="25">
+        <f>I63</f>
+        <v>8937.4027819967469</v>
+      </c>
+      <c r="I10" s="25">
+        <f>I67</f>
+        <v>13629.559262746263</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" s="23">
         <v>5</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="23">
         <v>9.4586754061144198E-4</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="23">
         <f t="shared" si="0"/>
         <v>6561.1539999999995</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="23">
         <f t="shared" si="1"/>
         <v>6.7156595383412379</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="23">
         <f t="shared" si="2"/>
         <v>7458.1049268551724</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="23">
         <f t="shared" si="3"/>
         <v>522.06734487986216</v>
       </c>
+      <c r="G11" s="24">
+        <f>P62</f>
+        <v>1220.6419858935897</v>
+      </c>
+      <c r="H11" s="25">
+        <f>P63</f>
+        <v>5352.5953197395756</v>
+      </c>
+      <c r="I11" s="25">
+        <f>P67</f>
+        <v>10621.030032086306</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="A12" s="23">
         <v>5.5</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="23">
         <v>5.9603369827353095E-4</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="23">
         <f t="shared" si="0"/>
         <v>7278.8339999999998</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="23">
         <f t="shared" si="1"/>
         <v>4.2318392577420694</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="23">
         <f t="shared" si="2"/>
         <v>4699.6875046499044</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="23">
         <f t="shared" si="3"/>
         <v>328.97812532549335</v>
       </c>
+      <c r="G12" s="24">
+        <f>W62</f>
+        <v>1354.1597086045811</v>
+      </c>
+      <c r="H12" s="25">
+        <f>W63</f>
+        <v>3372.9111601859522</v>
+      </c>
+      <c r="I12" s="25">
+        <f>W67</f>
+        <v>9217.6241041298999</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="A13" s="23">
         <v>6</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="23">
         <v>3.9182834044490397E-4</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="23">
         <f t="shared" si="0"/>
         <v>7996.5140000000001</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="23">
         <f t="shared" si="1"/>
         <v>2.7819812171588181</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="23">
         <f t="shared" si="2"/>
         <v>3089.5413478979822</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="23">
         <f t="shared" si="3"/>
         <v>216.26789435285878</v>
       </c>
+      <c r="G13" s="24">
+        <f>AD62</f>
+        <v>1487.6774313155727</v>
+      </c>
+      <c r="H13" s="25">
+        <f>AD63</f>
+        <v>2217.3279567781242</v>
+      </c>
+      <c r="I13" s="25">
+        <f>AD67</f>
+        <v>8638.3191323192896</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+    </row>
+    <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-    </row>
-    <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="H15" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="23">
         <v>4</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>4</v>
-      </c>
-      <c r="B16">
+      <c r="B16" s="23">
         <v>8.5651017999755104E-4</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="23">
         <f>1425.36*A16-615.646</f>
         <v>5085.7939999999999</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="23">
         <f>B16*71^2</f>
         <v>4.3176678173676546</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="23">
         <f>1110554.352*D16/1000</f>
         <v>4795.0047850679894</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="23">
         <f>E16*0.07</f>
         <v>335.65033495475927</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="G16" s="24">
+        <f>B110</f>
+        <v>946.16491062482362</v>
+      </c>
+      <c r="H16" s="25">
+        <f>B111</f>
+        <v>3441.3192657382128</v>
+      </c>
+      <c r="I16" s="25">
+        <f>B115</f>
+        <v>7525.0785631795979</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A17" s="23">
         <v>4.5</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="23">
         <v>8.1011708129068605E-4</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="23">
         <f t="shared" ref="C17:C19" si="4">1425.36*A17-615.646</f>
         <v>5798.4740000000002</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="23">
         <f t="shared" ref="D17:D19" si="5">B17*71^2</f>
         <v>4.0838002067863481</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="23">
         <f t="shared" ref="E17:E19" si="6">1110554.352*D17/1000</f>
         <v>4535.2820923450781</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="23">
         <f t="shared" ref="F17:F19" si="7">E17*0.07</f>
         <v>317.46974646415549</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="G17" s="24">
+        <f>I110</f>
+        <v>1078.7524296049669</v>
+      </c>
+      <c r="H17" s="25">
+        <f>I111</f>
+        <v>3254.9193044701697</v>
+      </c>
+      <c r="I17" s="25">
+        <f>I115</f>
+        <v>7910.941964544907</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A18" s="23">
         <v>5</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="23">
         <v>7.8928667266953199E-4</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="23">
         <f t="shared" si="4"/>
         <v>6511.1539999999995</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="23">
         <f t="shared" si="5"/>
         <v>3.9787941169271108</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="23">
         <f t="shared" si="6"/>
         <v>4418.6671222653995</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="23">
         <f t="shared" si="7"/>
         <v>309.30669855857798</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="G18" s="24">
+        <f>P110</f>
+        <v>1211.3399485851103</v>
+      </c>
+      <c r="H18" s="25">
+        <f>P111</f>
+        <v>3171.2260943072943</v>
+      </c>
+      <c r="I18" s="25">
+        <f>P115</f>
+        <v>8399.5121170153834</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A19" s="23">
         <v>5.5</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="23">
         <v>7.7974690230116499E-4</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="23">
         <f t="shared" si="4"/>
         <v>7223.8339999999998</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="23">
         <f t="shared" si="5"/>
         <v>3.9307041345001728</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="23">
         <f t="shared" si="6"/>
         <v>4365.2605829935601</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="23">
         <f t="shared" si="7"/>
         <v>305.56824080954925</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="15" t="s">
+      <c r="G19" s="24">
+        <f>W110</f>
+        <v>1343.9274675652539</v>
+      </c>
+      <c r="H19" s="25">
+        <f>W111</f>
+        <v>3132.8968411051042</v>
+      </c>
+      <c r="I19" s="25">
+        <f>W115</f>
+        <v>8933.4462264465456</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A21" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="O21" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="V21" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="W21" s="17"/>
+      <c r="X21" s="17"/>
+      <c r="AC21" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD21" s="17"/>
+      <c r="AE21" s="17"/>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A22" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="O22" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="V22" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="W22" s="14"/>
+      <c r="X22" s="14"/>
+      <c r="AC22" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD22" s="14"/>
+      <c r="AE22" s="14"/>
+    </row>
+    <row r="23" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B23" s="5">
         <v>4</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C23" s="11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+      <c r="G23" s="20"/>
+      <c r="H23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P23" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W23" s="5">
+        <v>5.5</v>
+      </c>
+      <c r="X23" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD23" s="5">
+        <v>6</v>
+      </c>
+      <c r="AE23" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="5">
-        <v>1444.5449615321209</v>
-      </c>
-      <c r="C23" s="11" t="s">
+      <c r="B24" s="5">
+        <f>F9</f>
+        <v>1549.4346231999307</v>
+      </c>
+      <c r="C24" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24" s="5">
+        <f>F10</f>
+        <v>871.71285363414131</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="O24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P24" s="5">
+        <f>F11</f>
+        <v>522.06734487986216</v>
+      </c>
+      <c r="Q24" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="V24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="W24" s="5">
+        <f>F12</f>
+        <v>328.97812532549335</v>
+      </c>
+      <c r="X24" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AC24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD24" s="5">
+        <f>F13</f>
+        <v>216.26789435285878</v>
+      </c>
+      <c r="AE24" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF24" s="3"/>
+      <c r="AG24" s="3"/>
+      <c r="AH24" s="3"/>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B25" s="5">
+        <f>C9</f>
         <v>5125.7939999999999</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C25" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I25" s="5">
+        <f>C10</f>
+        <v>5843.4740000000002</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="O25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P25" s="5">
+        <f>C11</f>
+        <v>6561.1539999999995</v>
+      </c>
+      <c r="Q25" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="V25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W25" s="5">
+        <f>C12</f>
+        <v>7278.8339999999998</v>
+      </c>
+      <c r="X25" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+      <c r="AC25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD25" s="5">
+        <f>C13</f>
+        <v>7996.5140000000001</v>
+      </c>
+      <c r="AE25" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF25" s="1"/>
+      <c r="AG25" s="1"/>
+      <c r="AH25" s="1"/>
+    </row>
+    <row r="26" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="6">
-        <f>0.01*B24</f>
+      <c r="B26" s="6">
+        <f>0.01*B25</f>
         <v>51.257939999999998</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" s="6">
-        <f>0.6*B24</f>
-        <v>3075.4764</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>16</v>
@@ -929,47 +1259,197 @@
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G26" s="22"/>
+      <c r="H26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26" s="6">
+        <f>0.01*I25</f>
+        <v>58.434740000000005</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="O26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P26" s="6">
+        <f>0.01*P25</f>
+        <v>65.611539999999991</v>
+      </c>
+      <c r="Q26" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="V26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W26" s="6">
+        <f>0.01*W25</f>
+        <v>72.788340000000005</v>
+      </c>
+      <c r="X26" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="2"/>
+      <c r="AC26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD26" s="6">
+        <f>0.01*AD25</f>
+        <v>79.965140000000005</v>
+      </c>
+      <c r="AE26" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF26" s="2"/>
+      <c r="AG26" s="2"/>
+      <c r="AH26" s="2"/>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27" s="7">
-        <v>0.05</v>
+        <v>7</v>
+      </c>
+      <c r="B27" s="6">
+        <f>0.6*B25</f>
+        <v>3075.4764</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G27" s="22"/>
+      <c r="H27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I27" s="6">
+        <f>0.6*I25</f>
+        <v>3506.0844000000002</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="O27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P27" s="6">
+        <f>0.6*P25</f>
+        <v>3936.6923999999995</v>
+      </c>
+      <c r="Q27" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="V27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="W27" s="6">
+        <f>0.6*W25</f>
+        <v>4367.3004000000001</v>
+      </c>
+      <c r="X27" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
+      <c r="AC27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD27" s="6">
+        <f>0.6*AD25</f>
+        <v>4797.9084000000003</v>
+      </c>
+      <c r="AE27" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF27" s="2"/>
+      <c r="AG27" s="2"/>
+      <c r="AH27" s="2"/>
+    </row>
+    <row r="28" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" s="6">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="B28" s="7">
+        <v>0.05</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G28" s="22"/>
+      <c r="H28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="O28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P28" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="Q28" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="V28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W28" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="X28" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="2"/>
+      <c r="AC28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD28" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="AE28" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF28" s="2"/>
+      <c r="AG28" s="2"/>
+      <c r="AH28" s="2"/>
+    </row>
+    <row r="29" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B29" s="6">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>18</v>
@@ -977,179 +1457,802 @@
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="15" t="s">
+      <c r="G29" s="22"/>
+      <c r="H29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I29" s="6">
+        <v>20</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="O29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P29" s="6">
+        <v>20</v>
+      </c>
+      <c r="Q29" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="V29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="W29" s="6">
+        <v>20</v>
+      </c>
+      <c r="X29" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="2"/>
+      <c r="AA29" s="2"/>
+      <c r="AC29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD29" s="6">
+        <v>20</v>
+      </c>
+      <c r="AE29" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF29" s="2"/>
+      <c r="AG29" s="2"/>
+      <c r="AH29" s="2"/>
+    </row>
+    <row r="30" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="6">
+        <v>4</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30" s="6">
+        <v>4</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="O30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P30" s="6">
+        <v>4</v>
+      </c>
+      <c r="Q30" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="V30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="W30" s="6">
+        <v>4</v>
+      </c>
+      <c r="X30" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="2"/>
+      <c r="AA30" s="2"/>
+      <c r="AC30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD30" s="6">
+        <v>4</v>
+      </c>
+      <c r="AE30" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF30" s="2"/>
+      <c r="AG30" s="2"/>
+      <c r="AH30" s="2"/>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="G31" s="20"/>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A32" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="O32" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="V32" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="W32" s="14"/>
+      <c r="X32" s="14"/>
+      <c r="AC32" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD32" s="14"/>
+      <c r="AE32" s="14"/>
+    </row>
+    <row r="33" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-    </row>
-    <row r="32" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="8" t="s">
+      <c r="C33" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G33" s="20"/>
+      <c r="H33" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="I33" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K33" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="L33" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="M33" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="O33" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="P33" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q33" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="R33" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="S33" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="T33" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F32" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="10">
-        <f>B24/$B29</f>
+      <c r="V33" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="W33" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="X33" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y33" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z33" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA33" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC33" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD33" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE33" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF33" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG33" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH33" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A34" s="10">
+        <f>B25/$B30</f>
         <v>1281.4485</v>
       </c>
-      <c r="B33" s="10">
-        <v>0</v>
-      </c>
-      <c r="C33" s="10">
-        <v>0</v>
-      </c>
-      <c r="D33" s="10">
-        <v>0</v>
-      </c>
-      <c r="E33" s="10">
+      <c r="B34" s="10">
+        <v>0</v>
+      </c>
+      <c r="C34" s="10">
+        <v>0</v>
+      </c>
+      <c r="D34" s="10">
+        <v>0</v>
+      </c>
+      <c r="E34" s="10">
         <v>1</v>
       </c>
-      <c r="F33" s="10"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="10">
-        <f>B24/B29</f>
+      <c r="F34" s="10"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="10">
+        <f>I25/$B30</f>
+        <v>1460.8685</v>
+      </c>
+      <c r="I34" s="10">
+        <v>0</v>
+      </c>
+      <c r="J34" s="10">
+        <v>0</v>
+      </c>
+      <c r="K34" s="10">
+        <v>0</v>
+      </c>
+      <c r="L34" s="10">
+        <v>1</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c r="O34" s="10">
+        <f>P25/$P30</f>
+        <v>1640.2884999999999</v>
+      </c>
+      <c r="P34" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="10">
+        <v>0</v>
+      </c>
+      <c r="R34" s="10">
+        <v>0</v>
+      </c>
+      <c r="S34" s="10">
+        <v>1</v>
+      </c>
+      <c r="T34" s="10"/>
+      <c r="V34" s="10">
+        <f>W25/$P30</f>
+        <v>1819.7085</v>
+      </c>
+      <c r="W34" s="10">
+        <v>0</v>
+      </c>
+      <c r="X34" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA34" s="10"/>
+      <c r="AC34" s="10">
+        <f>AD25/$P30</f>
+        <v>1999.1285</v>
+      </c>
+      <c r="AD34" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG34" s="10">
+        <v>1</v>
+      </c>
+      <c r="AH34" s="10"/>
+    </row>
+    <row r="35" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A35" s="10">
+        <f>B25/B30</f>
         <v>1281.4485</v>
       </c>
-      <c r="B34" s="10">
-        <v>0</v>
-      </c>
-      <c r="C34" s="10">
-        <v>0</v>
-      </c>
-      <c r="D34" s="10">
-        <v>0</v>
-      </c>
-      <c r="E34" s="10">
+      <c r="B35" s="10">
+        <v>0</v>
+      </c>
+      <c r="C35" s="10">
+        <v>0</v>
+      </c>
+      <c r="D35" s="10">
+        <v>0</v>
+      </c>
+      <c r="E35" s="10">
         <v>2</v>
       </c>
-      <c r="F34" s="10"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="10">
-        <f>B24/B29</f>
+      <c r="F35" s="10"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="10">
+        <f>I25/I30</f>
+        <v>1460.8685</v>
+      </c>
+      <c r="I35" s="10">
+        <v>0</v>
+      </c>
+      <c r="J35" s="10">
+        <v>0</v>
+      </c>
+      <c r="K35" s="10">
+        <v>0</v>
+      </c>
+      <c r="L35" s="10">
+        <v>2</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c r="O35" s="10">
+        <f>P25/P30</f>
+        <v>1640.2884999999999</v>
+      </c>
+      <c r="P35" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="10">
+        <v>0</v>
+      </c>
+      <c r="R35" s="10">
+        <v>0</v>
+      </c>
+      <c r="S35" s="10">
+        <v>2</v>
+      </c>
+      <c r="T35" s="10"/>
+      <c r="V35" s="10">
+        <f>W25/W30</f>
+        <v>1819.7085</v>
+      </c>
+      <c r="W35" s="10">
+        <v>0</v>
+      </c>
+      <c r="X35" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="10">
+        <v>2</v>
+      </c>
+      <c r="AA35" s="10"/>
+      <c r="AC35" s="10">
+        <f>AD25/AD30</f>
+        <v>1999.1285</v>
+      </c>
+      <c r="AD35" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG35" s="10">
+        <v>2</v>
+      </c>
+      <c r="AH35" s="10"/>
+    </row>
+    <row r="36" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A36" s="10">
+        <f>B25/B30</f>
         <v>1281.4485</v>
       </c>
-      <c r="B35" s="10">
-        <v>0</v>
-      </c>
-      <c r="C35" s="10">
-        <v>0</v>
-      </c>
-      <c r="D35" s="10">
-        <v>0</v>
-      </c>
-      <c r="E35" s="10">
+      <c r="B36" s="10">
+        <v>0</v>
+      </c>
+      <c r="C36" s="10">
+        <v>0</v>
+      </c>
+      <c r="D36" s="10">
+        <v>0</v>
+      </c>
+      <c r="E36" s="10">
         <v>3</v>
       </c>
-      <c r="F35" s="10"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="10">
-        <f>B24/B29</f>
+      <c r="F36" s="10"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="10">
+        <f>I25/I30</f>
+        <v>1460.8685</v>
+      </c>
+      <c r="I36" s="10">
+        <v>0</v>
+      </c>
+      <c r="J36" s="10">
+        <v>0</v>
+      </c>
+      <c r="K36" s="10">
+        <v>0</v>
+      </c>
+      <c r="L36" s="10">
+        <v>3</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c r="O36" s="10">
+        <f>P25/P30</f>
+        <v>1640.2884999999999</v>
+      </c>
+      <c r="P36" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="10">
+        <v>0</v>
+      </c>
+      <c r="R36" s="10">
+        <v>0</v>
+      </c>
+      <c r="S36" s="10">
+        <v>3</v>
+      </c>
+      <c r="T36" s="10"/>
+      <c r="V36" s="10">
+        <f>W25/W30</f>
+        <v>1819.7085</v>
+      </c>
+      <c r="W36" s="10">
+        <v>0</v>
+      </c>
+      <c r="X36" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="10">
+        <v>3</v>
+      </c>
+      <c r="AA36" s="10"/>
+      <c r="AC36" s="10">
+        <f>AD25/AD30</f>
+        <v>1999.1285</v>
+      </c>
+      <c r="AD36" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF36" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG36" s="10">
+        <v>3</v>
+      </c>
+      <c r="AH36" s="10"/>
+    </row>
+    <row r="37" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A37" s="10">
+        <f>B25/B30</f>
         <v>1281.4485</v>
       </c>
-      <c r="B36" s="10">
-        <v>0</v>
-      </c>
-      <c r="C36" s="10">
-        <v>0</v>
-      </c>
-      <c r="D36" s="10">
-        <v>0</v>
-      </c>
-      <c r="E36" s="10">
+      <c r="B37" s="10">
+        <v>0</v>
+      </c>
+      <c r="C37" s="10">
+        <v>0</v>
+      </c>
+      <c r="D37" s="10">
+        <v>0</v>
+      </c>
+      <c r="E37" s="10">
         <v>4</v>
       </c>
-      <c r="F36" s="10"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="10">
-        <v>0</v>
-      </c>
-      <c r="B37" s="10">
-        <f>$B$25</f>
+      <c r="F37" s="10"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="10">
+        <f>I25/I30</f>
+        <v>1460.8685</v>
+      </c>
+      <c r="I37" s="10">
+        <v>0</v>
+      </c>
+      <c r="J37" s="10">
+        <v>0</v>
+      </c>
+      <c r="K37" s="10">
+        <v>0</v>
+      </c>
+      <c r="L37" s="10">
+        <v>4</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c r="O37" s="10">
+        <f>P25/P30</f>
+        <v>1640.2884999999999</v>
+      </c>
+      <c r="P37" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="10">
+        <v>0</v>
+      </c>
+      <c r="R37" s="10">
+        <v>0</v>
+      </c>
+      <c r="S37" s="10">
+        <v>4</v>
+      </c>
+      <c r="T37" s="10"/>
+      <c r="V37" s="10">
+        <f>W25/W30</f>
+        <v>1819.7085</v>
+      </c>
+      <c r="W37" s="10">
+        <v>0</v>
+      </c>
+      <c r="X37" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="10">
+        <v>4</v>
+      </c>
+      <c r="AA37" s="10"/>
+      <c r="AC37" s="10">
+        <f>AD25/AD30</f>
+        <v>1999.1285</v>
+      </c>
+      <c r="AD37" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE37" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF37" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG37" s="10">
+        <v>4</v>
+      </c>
+      <c r="AH37" s="10"/>
+    </row>
+    <row r="38" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A38" s="10">
+        <v>0</v>
+      </c>
+      <c r="B38" s="10">
+        <f>$B$26</f>
         <v>51.257939999999998</v>
       </c>
-      <c r="C37" s="10">
-        <v>0</v>
-      </c>
-      <c r="D37" s="10">
-        <f>$B$23</f>
-        <v>1444.5449615321209</v>
-      </c>
-      <c r="E37" s="10">
+      <c r="C38" s="10">
+        <v>0</v>
+      </c>
+      <c r="D38" s="10">
+        <f>$B$24</f>
+        <v>1549.4346231999307</v>
+      </c>
+      <c r="E38" s="10">
         <v>5</v>
       </c>
-      <c r="F37" s="10">
+      <c r="F38" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="10">
-        <v>0</v>
-      </c>
-      <c r="B38" s="10">
-        <f t="shared" ref="B38:B56" si="8">$B$25</f>
+      <c r="G38" s="20"/>
+      <c r="H38" s="10">
+        <v>0</v>
+      </c>
+      <c r="I38" s="10">
+        <f>$I$26</f>
+        <v>58.434740000000005</v>
+      </c>
+      <c r="J38" s="10">
+        <v>0</v>
+      </c>
+      <c r="K38" s="10">
+        <f>$I$24</f>
+        <v>871.71285363414131</v>
+      </c>
+      <c r="L38" s="10">
+        <v>5</v>
+      </c>
+      <c r="M38" s="10">
+        <v>1</v>
+      </c>
+      <c r="O38" s="10">
+        <v>0</v>
+      </c>
+      <c r="P38" s="10">
+        <f>$P$26</f>
+        <v>65.611539999999991</v>
+      </c>
+      <c r="Q38" s="10">
+        <v>0</v>
+      </c>
+      <c r="R38" s="10">
+        <f>$P$24</f>
+        <v>522.06734487986216</v>
+      </c>
+      <c r="S38" s="10">
+        <v>5</v>
+      </c>
+      <c r="T38" s="10">
+        <v>1</v>
+      </c>
+      <c r="V38" s="10">
+        <v>0</v>
+      </c>
+      <c r="W38" s="10">
+        <f>$W$26</f>
+        <v>72.788340000000005</v>
+      </c>
+      <c r="X38" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="10">
+        <f>$W$24</f>
+        <v>328.97812532549335</v>
+      </c>
+      <c r="Z38" s="10">
+        <v>5</v>
+      </c>
+      <c r="AA38" s="10">
+        <v>1</v>
+      </c>
+      <c r="AC38" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="10">
+        <f>$AD$26</f>
+        <v>79.965140000000005</v>
+      </c>
+      <c r="AE38" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="10">
+        <f>$AD$24</f>
+        <v>216.26789435285878</v>
+      </c>
+      <c r="AG38" s="10">
+        <v>5</v>
+      </c>
+      <c r="AH38" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A39" s="10">
+        <v>0</v>
+      </c>
+      <c r="B39" s="10">
+        <f t="shared" ref="B39:B57" si="8">$B$26</f>
         <v>51.257939999999998</v>
       </c>
-      <c r="C38" s="10">
-        <v>0</v>
-      </c>
-      <c r="D38" s="10">
-        <f t="shared" ref="D38:D56" si="9">$B$23</f>
-        <v>1444.5449615321209</v>
-      </c>
-      <c r="E38" s="10">
+      <c r="C39" s="10">
+        <v>0</v>
+      </c>
+      <c r="D39" s="10">
+        <f t="shared" ref="D39:D57" si="9">$B$24</f>
+        <v>1549.4346231999307</v>
+      </c>
+      <c r="E39" s="10">
         <v>6</v>
       </c>
-      <c r="F38" s="10">
+      <c r="F39" s="10">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="10">
-        <v>0</v>
-      </c>
-      <c r="B39" s="10">
-        <f t="shared" si="8"/>
-        <v>51.257939999999998</v>
-      </c>
-      <c r="C39" s="10">
-        <v>0</v>
-      </c>
-      <c r="D39" s="10">
-        <f t="shared" si="9"/>
-        <v>1444.5449615321209</v>
-      </c>
-      <c r="E39" s="10">
-        <v>7</v>
-      </c>
-      <c r="F39" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G39" s="20"/>
+      <c r="H39" s="10">
+        <v>0</v>
+      </c>
+      <c r="I39" s="10">
+        <f t="shared" ref="I39:I57" si="10">$I$26</f>
+        <v>58.434740000000005</v>
+      </c>
+      <c r="J39" s="10">
+        <v>0</v>
+      </c>
+      <c r="K39" s="10">
+        <f t="shared" ref="K39:K57" si="11">$I$24</f>
+        <v>871.71285363414131</v>
+      </c>
+      <c r="L39" s="10">
+        <v>6</v>
+      </c>
+      <c r="M39" s="10">
+        <v>2</v>
+      </c>
+      <c r="O39" s="10">
+        <v>0</v>
+      </c>
+      <c r="P39" s="10">
+        <f t="shared" ref="P39:P57" si="12">$P$26</f>
+        <v>65.611539999999991</v>
+      </c>
+      <c r="Q39" s="10">
+        <v>0</v>
+      </c>
+      <c r="R39" s="10">
+        <f t="shared" ref="R39:R57" si="13">$P$24</f>
+        <v>522.06734487986216</v>
+      </c>
+      <c r="S39" s="10">
+        <v>6</v>
+      </c>
+      <c r="T39" s="10">
+        <v>2</v>
+      </c>
+      <c r="V39" s="10">
+        <v>0</v>
+      </c>
+      <c r="W39" s="10">
+        <f t="shared" ref="W39:W57" si="14">$W$26</f>
+        <v>72.788340000000005</v>
+      </c>
+      <c r="X39" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="10">
+        <f t="shared" ref="Y39:Y57" si="15">$W$24</f>
+        <v>328.97812532549335</v>
+      </c>
+      <c r="Z39" s="10">
+        <v>6</v>
+      </c>
+      <c r="AA39" s="10">
+        <v>2</v>
+      </c>
+      <c r="AC39" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="10">
+        <f t="shared" ref="AD39:AD57" si="16">$AD$26</f>
+        <v>79.965140000000005</v>
+      </c>
+      <c r="AE39" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF39" s="10">
+        <f t="shared" ref="AF39:AF57" si="17">$AD$24</f>
+        <v>216.26789435285878</v>
+      </c>
+      <c r="AG39" s="10">
+        <v>6</v>
+      </c>
+      <c r="AH39" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A40" s="10">
         <v>0</v>
       </c>
@@ -1162,16 +2265,97 @@
       </c>
       <c r="D40" s="10">
         <f t="shared" si="9"/>
-        <v>1444.5449615321209</v>
+        <v>1549.4346231999307</v>
       </c>
       <c r="E40" s="10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F40" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="G40" s="20"/>
+      <c r="H40" s="10">
+        <v>0</v>
+      </c>
+      <c r="I40" s="10">
+        <f t="shared" si="10"/>
+        <v>58.434740000000005</v>
+      </c>
+      <c r="J40" s="10">
+        <v>0</v>
+      </c>
+      <c r="K40" s="10">
+        <f t="shared" si="11"/>
+        <v>871.71285363414131</v>
+      </c>
+      <c r="L40" s="10">
+        <v>7</v>
+      </c>
+      <c r="M40" s="10">
+        <v>3</v>
+      </c>
+      <c r="O40" s="10">
+        <v>0</v>
+      </c>
+      <c r="P40" s="10">
+        <f t="shared" si="12"/>
+        <v>65.611539999999991</v>
+      </c>
+      <c r="Q40" s="10">
+        <v>0</v>
+      </c>
+      <c r="R40" s="10">
+        <f t="shared" si="13"/>
+        <v>522.06734487986216</v>
+      </c>
+      <c r="S40" s="10">
+        <v>7</v>
+      </c>
+      <c r="T40" s="10">
+        <v>3</v>
+      </c>
+      <c r="V40" s="10">
+        <v>0</v>
+      </c>
+      <c r="W40" s="10">
+        <f t="shared" si="14"/>
+        <v>72.788340000000005</v>
+      </c>
+      <c r="X40" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="10">
+        <f t="shared" si="15"/>
+        <v>328.97812532549335</v>
+      </c>
+      <c r="Z40" s="10">
+        <v>7</v>
+      </c>
+      <c r="AA40" s="10">
+        <v>3</v>
+      </c>
+      <c r="AC40" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="10">
+        <f t="shared" si="16"/>
+        <v>79.965140000000005</v>
+      </c>
+      <c r="AE40" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF40" s="10">
+        <f t="shared" si="17"/>
+        <v>216.26789435285878</v>
+      </c>
+      <c r="AG40" s="10">
+        <v>7</v>
+      </c>
+      <c r="AH40" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A41" s="10">
         <v>0</v>
       </c>
@@ -1184,16 +2368,97 @@
       </c>
       <c r="D41" s="10">
         <f t="shared" si="9"/>
-        <v>1444.5449615321209</v>
+        <v>1549.4346231999307</v>
       </c>
       <c r="E41" s="10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F41" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="G41" s="20"/>
+      <c r="H41" s="10">
+        <v>0</v>
+      </c>
+      <c r="I41" s="10">
+        <f t="shared" si="10"/>
+        <v>58.434740000000005</v>
+      </c>
+      <c r="J41" s="10">
+        <v>0</v>
+      </c>
+      <c r="K41" s="10">
+        <f t="shared" si="11"/>
+        <v>871.71285363414131</v>
+      </c>
+      <c r="L41" s="10">
+        <v>8</v>
+      </c>
+      <c r="M41" s="10">
+        <v>4</v>
+      </c>
+      <c r="O41" s="10">
+        <v>0</v>
+      </c>
+      <c r="P41" s="10">
+        <f t="shared" si="12"/>
+        <v>65.611539999999991</v>
+      </c>
+      <c r="Q41" s="10">
+        <v>0</v>
+      </c>
+      <c r="R41" s="10">
+        <f t="shared" si="13"/>
+        <v>522.06734487986216</v>
+      </c>
+      <c r="S41" s="10">
+        <v>8</v>
+      </c>
+      <c r="T41" s="10">
+        <v>4</v>
+      </c>
+      <c r="V41" s="10">
+        <v>0</v>
+      </c>
+      <c r="W41" s="10">
+        <f t="shared" si="14"/>
+        <v>72.788340000000005</v>
+      </c>
+      <c r="X41" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="10">
+        <f t="shared" si="15"/>
+        <v>328.97812532549335</v>
+      </c>
+      <c r="Z41" s="10">
+        <v>8</v>
+      </c>
+      <c r="AA41" s="10">
+        <v>4</v>
+      </c>
+      <c r="AC41" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="10">
+        <f t="shared" si="16"/>
+        <v>79.965140000000005</v>
+      </c>
+      <c r="AE41" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF41" s="10">
+        <f t="shared" si="17"/>
+        <v>216.26789435285878</v>
+      </c>
+      <c r="AG41" s="10">
+        <v>8</v>
+      </c>
+      <c r="AH41" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A42" s="10">
         <v>0</v>
       </c>
@@ -1206,16 +2471,97 @@
       </c>
       <c r="D42" s="10">
         <f t="shared" si="9"/>
-        <v>1444.5449615321209</v>
+        <v>1549.4346231999307</v>
       </c>
       <c r="E42" s="10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F42" s="10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="G42" s="20"/>
+      <c r="H42" s="10">
+        <v>0</v>
+      </c>
+      <c r="I42" s="10">
+        <f t="shared" si="10"/>
+        <v>58.434740000000005</v>
+      </c>
+      <c r="J42" s="10">
+        <v>0</v>
+      </c>
+      <c r="K42" s="10">
+        <f t="shared" si="11"/>
+        <v>871.71285363414131</v>
+      </c>
+      <c r="L42" s="10">
+        <v>9</v>
+      </c>
+      <c r="M42" s="10">
+        <v>5</v>
+      </c>
+      <c r="O42" s="10">
+        <v>0</v>
+      </c>
+      <c r="P42" s="10">
+        <f t="shared" si="12"/>
+        <v>65.611539999999991</v>
+      </c>
+      <c r="Q42" s="10">
+        <v>0</v>
+      </c>
+      <c r="R42" s="10">
+        <f t="shared" si="13"/>
+        <v>522.06734487986216</v>
+      </c>
+      <c r="S42" s="10">
+        <v>9</v>
+      </c>
+      <c r="T42" s="10">
+        <v>5</v>
+      </c>
+      <c r="V42" s="10">
+        <v>0</v>
+      </c>
+      <c r="W42" s="10">
+        <f t="shared" si="14"/>
+        <v>72.788340000000005</v>
+      </c>
+      <c r="X42" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="10">
+        <f t="shared" si="15"/>
+        <v>328.97812532549335</v>
+      </c>
+      <c r="Z42" s="10">
+        <v>9</v>
+      </c>
+      <c r="AA42" s="10">
+        <v>5</v>
+      </c>
+      <c r="AC42" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="10">
+        <f t="shared" si="16"/>
+        <v>79.965140000000005</v>
+      </c>
+      <c r="AE42" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="10">
+        <f t="shared" si="17"/>
+        <v>216.26789435285878</v>
+      </c>
+      <c r="AG42" s="10">
+        <v>9</v>
+      </c>
+      <c r="AH42" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A43" s="10">
         <v>0</v>
       </c>
@@ -1228,16 +2574,97 @@
       </c>
       <c r="D43" s="10">
         <f t="shared" si="9"/>
-        <v>1444.5449615321209</v>
+        <v>1549.4346231999307</v>
       </c>
       <c r="E43" s="10">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F43" s="10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="G43" s="20"/>
+      <c r="H43" s="10">
+        <v>0</v>
+      </c>
+      <c r="I43" s="10">
+        <f t="shared" si="10"/>
+        <v>58.434740000000005</v>
+      </c>
+      <c r="J43" s="10">
+        <v>0</v>
+      </c>
+      <c r="K43" s="10">
+        <f t="shared" si="11"/>
+        <v>871.71285363414131</v>
+      </c>
+      <c r="L43" s="10">
+        <v>10</v>
+      </c>
+      <c r="M43" s="10">
+        <v>6</v>
+      </c>
+      <c r="O43" s="10">
+        <v>0</v>
+      </c>
+      <c r="P43" s="10">
+        <f t="shared" si="12"/>
+        <v>65.611539999999991</v>
+      </c>
+      <c r="Q43" s="10">
+        <v>0</v>
+      </c>
+      <c r="R43" s="10">
+        <f t="shared" si="13"/>
+        <v>522.06734487986216</v>
+      </c>
+      <c r="S43" s="10">
+        <v>10</v>
+      </c>
+      <c r="T43" s="10">
+        <v>6</v>
+      </c>
+      <c r="V43" s="10">
+        <v>0</v>
+      </c>
+      <c r="W43" s="10">
+        <f t="shared" si="14"/>
+        <v>72.788340000000005</v>
+      </c>
+      <c r="X43" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="10">
+        <f t="shared" si="15"/>
+        <v>328.97812532549335</v>
+      </c>
+      <c r="Z43" s="10">
+        <v>10</v>
+      </c>
+      <c r="AA43" s="10">
+        <v>6</v>
+      </c>
+      <c r="AC43" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="10">
+        <f t="shared" si="16"/>
+        <v>79.965140000000005</v>
+      </c>
+      <c r="AE43" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="10">
+        <f t="shared" si="17"/>
+        <v>216.26789435285878</v>
+      </c>
+      <c r="AG43" s="10">
+        <v>10</v>
+      </c>
+      <c r="AH43" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A44" s="10">
         <v>0</v>
       </c>
@@ -1250,16 +2677,97 @@
       </c>
       <c r="D44" s="10">
         <f t="shared" si="9"/>
-        <v>1444.5449615321209</v>
+        <v>1549.4346231999307</v>
       </c>
       <c r="E44" s="10">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F44" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="G44" s="20"/>
+      <c r="H44" s="10">
+        <v>0</v>
+      </c>
+      <c r="I44" s="10">
+        <f t="shared" si="10"/>
+        <v>58.434740000000005</v>
+      </c>
+      <c r="J44" s="10">
+        <v>0</v>
+      </c>
+      <c r="K44" s="10">
+        <f t="shared" si="11"/>
+        <v>871.71285363414131</v>
+      </c>
+      <c r="L44" s="10">
+        <v>11</v>
+      </c>
+      <c r="M44" s="10">
+        <v>7</v>
+      </c>
+      <c r="O44" s="10">
+        <v>0</v>
+      </c>
+      <c r="P44" s="10">
+        <f t="shared" si="12"/>
+        <v>65.611539999999991</v>
+      </c>
+      <c r="Q44" s="10">
+        <v>0</v>
+      </c>
+      <c r="R44" s="10">
+        <f t="shared" si="13"/>
+        <v>522.06734487986216</v>
+      </c>
+      <c r="S44" s="10">
+        <v>11</v>
+      </c>
+      <c r="T44" s="10">
+        <v>7</v>
+      </c>
+      <c r="V44" s="10">
+        <v>0</v>
+      </c>
+      <c r="W44" s="10">
+        <f t="shared" si="14"/>
+        <v>72.788340000000005</v>
+      </c>
+      <c r="X44" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="10">
+        <f t="shared" si="15"/>
+        <v>328.97812532549335</v>
+      </c>
+      <c r="Z44" s="10">
+        <v>11</v>
+      </c>
+      <c r="AA44" s="10">
+        <v>7</v>
+      </c>
+      <c r="AC44" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="10">
+        <f t="shared" si="16"/>
+        <v>79.965140000000005</v>
+      </c>
+      <c r="AE44" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF44" s="10">
+        <f t="shared" si="17"/>
+        <v>216.26789435285878</v>
+      </c>
+      <c r="AG44" s="10">
+        <v>11</v>
+      </c>
+      <c r="AH44" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A45" s="10">
         <v>0</v>
       </c>
@@ -1272,16 +2780,97 @@
       </c>
       <c r="D45" s="10">
         <f t="shared" si="9"/>
-        <v>1444.5449615321209</v>
+        <v>1549.4346231999307</v>
       </c>
       <c r="E45" s="10">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F45" s="10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="G45" s="20"/>
+      <c r="H45" s="10">
+        <v>0</v>
+      </c>
+      <c r="I45" s="10">
+        <f t="shared" si="10"/>
+        <v>58.434740000000005</v>
+      </c>
+      <c r="J45" s="10">
+        <v>0</v>
+      </c>
+      <c r="K45" s="10">
+        <f t="shared" si="11"/>
+        <v>871.71285363414131</v>
+      </c>
+      <c r="L45" s="10">
+        <v>12</v>
+      </c>
+      <c r="M45" s="10">
+        <v>8</v>
+      </c>
+      <c r="O45" s="10">
+        <v>0</v>
+      </c>
+      <c r="P45" s="10">
+        <f t="shared" si="12"/>
+        <v>65.611539999999991</v>
+      </c>
+      <c r="Q45" s="10">
+        <v>0</v>
+      </c>
+      <c r="R45" s="10">
+        <f t="shared" si="13"/>
+        <v>522.06734487986216</v>
+      </c>
+      <c r="S45" s="10">
+        <v>12</v>
+      </c>
+      <c r="T45" s="10">
+        <v>8</v>
+      </c>
+      <c r="V45" s="10">
+        <v>0</v>
+      </c>
+      <c r="W45" s="10">
+        <f t="shared" si="14"/>
+        <v>72.788340000000005</v>
+      </c>
+      <c r="X45" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="10">
+        <f t="shared" si="15"/>
+        <v>328.97812532549335</v>
+      </c>
+      <c r="Z45" s="10">
+        <v>12</v>
+      </c>
+      <c r="AA45" s="10">
+        <v>8</v>
+      </c>
+      <c r="AC45" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="10">
+        <f t="shared" si="16"/>
+        <v>79.965140000000005</v>
+      </c>
+      <c r="AE45" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF45" s="10">
+        <f t="shared" si="17"/>
+        <v>216.26789435285878</v>
+      </c>
+      <c r="AG45" s="10">
+        <v>12</v>
+      </c>
+      <c r="AH45" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A46" s="10">
         <v>0</v>
       </c>
@@ -1294,16 +2883,97 @@
       </c>
       <c r="D46" s="10">
         <f t="shared" si="9"/>
-        <v>1444.5449615321209</v>
+        <v>1549.4346231999307</v>
       </c>
       <c r="E46" s="10">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F46" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="G46" s="20"/>
+      <c r="H46" s="10">
+        <v>0</v>
+      </c>
+      <c r="I46" s="10">
+        <f t="shared" si="10"/>
+        <v>58.434740000000005</v>
+      </c>
+      <c r="J46" s="10">
+        <v>0</v>
+      </c>
+      <c r="K46" s="10">
+        <f t="shared" si="11"/>
+        <v>871.71285363414131</v>
+      </c>
+      <c r="L46" s="10">
+        <v>13</v>
+      </c>
+      <c r="M46" s="10">
+        <v>9</v>
+      </c>
+      <c r="O46" s="10">
+        <v>0</v>
+      </c>
+      <c r="P46" s="10">
+        <f t="shared" si="12"/>
+        <v>65.611539999999991</v>
+      </c>
+      <c r="Q46" s="10">
+        <v>0</v>
+      </c>
+      <c r="R46" s="10">
+        <f t="shared" si="13"/>
+        <v>522.06734487986216</v>
+      </c>
+      <c r="S46" s="10">
+        <v>13</v>
+      </c>
+      <c r="T46" s="10">
+        <v>9</v>
+      </c>
+      <c r="V46" s="10">
+        <v>0</v>
+      </c>
+      <c r="W46" s="10">
+        <f t="shared" si="14"/>
+        <v>72.788340000000005</v>
+      </c>
+      <c r="X46" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="10">
+        <f t="shared" si="15"/>
+        <v>328.97812532549335</v>
+      </c>
+      <c r="Z46" s="10">
+        <v>13</v>
+      </c>
+      <c r="AA46" s="10">
+        <v>9</v>
+      </c>
+      <c r="AC46" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="10">
+        <f t="shared" si="16"/>
+        <v>79.965140000000005</v>
+      </c>
+      <c r="AE46" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF46" s="10">
+        <f t="shared" si="17"/>
+        <v>216.26789435285878</v>
+      </c>
+      <c r="AG46" s="10">
+        <v>13</v>
+      </c>
+      <c r="AH46" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A47" s="10">
         <v>0</v>
       </c>
@@ -1316,16 +2986,97 @@
       </c>
       <c r="D47" s="10">
         <f t="shared" si="9"/>
-        <v>1444.5449615321209</v>
+        <v>1549.4346231999307</v>
       </c>
       <c r="E47" s="10">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F47" s="10">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="G47" s="20"/>
+      <c r="H47" s="10">
+        <v>0</v>
+      </c>
+      <c r="I47" s="10">
+        <f t="shared" si="10"/>
+        <v>58.434740000000005</v>
+      </c>
+      <c r="J47" s="10">
+        <v>0</v>
+      </c>
+      <c r="K47" s="10">
+        <f t="shared" si="11"/>
+        <v>871.71285363414131</v>
+      </c>
+      <c r="L47" s="10">
+        <v>14</v>
+      </c>
+      <c r="M47" s="10">
+        <v>10</v>
+      </c>
+      <c r="O47" s="10">
+        <v>0</v>
+      </c>
+      <c r="P47" s="10">
+        <f t="shared" si="12"/>
+        <v>65.611539999999991</v>
+      </c>
+      <c r="Q47" s="10">
+        <v>0</v>
+      </c>
+      <c r="R47" s="10">
+        <f t="shared" si="13"/>
+        <v>522.06734487986216</v>
+      </c>
+      <c r="S47" s="10">
+        <v>14</v>
+      </c>
+      <c r="T47" s="10">
+        <v>10</v>
+      </c>
+      <c r="V47" s="10">
+        <v>0</v>
+      </c>
+      <c r="W47" s="10">
+        <f t="shared" si="14"/>
+        <v>72.788340000000005</v>
+      </c>
+      <c r="X47" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="10">
+        <f t="shared" si="15"/>
+        <v>328.97812532549335</v>
+      </c>
+      <c r="Z47" s="10">
+        <v>14</v>
+      </c>
+      <c r="AA47" s="10">
+        <v>10</v>
+      </c>
+      <c r="AC47" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="10">
+        <f t="shared" si="16"/>
+        <v>79.965140000000005</v>
+      </c>
+      <c r="AE47" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF47" s="10">
+        <f t="shared" si="17"/>
+        <v>216.26789435285878</v>
+      </c>
+      <c r="AG47" s="10">
+        <v>14</v>
+      </c>
+      <c r="AH47" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A48" s="10">
         <v>0</v>
       </c>
@@ -1338,16 +3089,97 @@
       </c>
       <c r="D48" s="10">
         <f t="shared" si="9"/>
-        <v>1444.5449615321209</v>
+        <v>1549.4346231999307</v>
       </c>
       <c r="E48" s="10">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F48" s="10">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="G48" s="20"/>
+      <c r="H48" s="10">
+        <v>0</v>
+      </c>
+      <c r="I48" s="10">
+        <f t="shared" si="10"/>
+        <v>58.434740000000005</v>
+      </c>
+      <c r="J48" s="10">
+        <v>0</v>
+      </c>
+      <c r="K48" s="10">
+        <f t="shared" si="11"/>
+        <v>871.71285363414131</v>
+      </c>
+      <c r="L48" s="10">
+        <v>15</v>
+      </c>
+      <c r="M48" s="10">
+        <v>11</v>
+      </c>
+      <c r="O48" s="10">
+        <v>0</v>
+      </c>
+      <c r="P48" s="10">
+        <f t="shared" si="12"/>
+        <v>65.611539999999991</v>
+      </c>
+      <c r="Q48" s="10">
+        <v>0</v>
+      </c>
+      <c r="R48" s="10">
+        <f t="shared" si="13"/>
+        <v>522.06734487986216</v>
+      </c>
+      <c r="S48" s="10">
+        <v>15</v>
+      </c>
+      <c r="T48" s="10">
+        <v>11</v>
+      </c>
+      <c r="V48" s="10">
+        <v>0</v>
+      </c>
+      <c r="W48" s="10">
+        <f t="shared" si="14"/>
+        <v>72.788340000000005</v>
+      </c>
+      <c r="X48" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="10">
+        <f t="shared" si="15"/>
+        <v>328.97812532549335</v>
+      </c>
+      <c r="Z48" s="10">
+        <v>15</v>
+      </c>
+      <c r="AA48" s="10">
+        <v>11</v>
+      </c>
+      <c r="AC48" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="10">
+        <f t="shared" si="16"/>
+        <v>79.965140000000005</v>
+      </c>
+      <c r="AE48" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF48" s="10">
+        <f t="shared" si="17"/>
+        <v>216.26789435285878</v>
+      </c>
+      <c r="AG48" s="10">
+        <v>15</v>
+      </c>
+      <c r="AH48" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A49" s="10">
         <v>0</v>
       </c>
@@ -1360,16 +3192,97 @@
       </c>
       <c r="D49" s="10">
         <f t="shared" si="9"/>
-        <v>1444.5449615321209</v>
+        <v>1549.4346231999307</v>
       </c>
       <c r="E49" s="10">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F49" s="10">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="G49" s="20"/>
+      <c r="H49" s="10">
+        <v>0</v>
+      </c>
+      <c r="I49" s="10">
+        <f t="shared" si="10"/>
+        <v>58.434740000000005</v>
+      </c>
+      <c r="J49" s="10">
+        <v>0</v>
+      </c>
+      <c r="K49" s="10">
+        <f t="shared" si="11"/>
+        <v>871.71285363414131</v>
+      </c>
+      <c r="L49" s="10">
+        <v>16</v>
+      </c>
+      <c r="M49" s="10">
+        <v>12</v>
+      </c>
+      <c r="O49" s="10">
+        <v>0</v>
+      </c>
+      <c r="P49" s="10">
+        <f t="shared" si="12"/>
+        <v>65.611539999999991</v>
+      </c>
+      <c r="Q49" s="10">
+        <v>0</v>
+      </c>
+      <c r="R49" s="10">
+        <f t="shared" si="13"/>
+        <v>522.06734487986216</v>
+      </c>
+      <c r="S49" s="10">
+        <v>16</v>
+      </c>
+      <c r="T49" s="10">
+        <v>12</v>
+      </c>
+      <c r="V49" s="10">
+        <v>0</v>
+      </c>
+      <c r="W49" s="10">
+        <f t="shared" si="14"/>
+        <v>72.788340000000005</v>
+      </c>
+      <c r="X49" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="10">
+        <f t="shared" si="15"/>
+        <v>328.97812532549335</v>
+      </c>
+      <c r="Z49" s="10">
+        <v>16</v>
+      </c>
+      <c r="AA49" s="10">
+        <v>12</v>
+      </c>
+      <c r="AC49" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="10">
+        <f t="shared" si="16"/>
+        <v>79.965140000000005</v>
+      </c>
+      <c r="AE49" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF49" s="10">
+        <f t="shared" si="17"/>
+        <v>216.26789435285878</v>
+      </c>
+      <c r="AG49" s="10">
+        <v>16</v>
+      </c>
+      <c r="AH49" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A50" s="10">
         <v>0</v>
       </c>
@@ -1382,16 +3295,97 @@
       </c>
       <c r="D50" s="10">
         <f t="shared" si="9"/>
-        <v>1444.5449615321209</v>
+        <v>1549.4346231999307</v>
       </c>
       <c r="E50" s="10">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F50" s="10">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="G50" s="20"/>
+      <c r="H50" s="10">
+        <v>0</v>
+      </c>
+      <c r="I50" s="10">
+        <f t="shared" si="10"/>
+        <v>58.434740000000005</v>
+      </c>
+      <c r="J50" s="10">
+        <v>0</v>
+      </c>
+      <c r="K50" s="10">
+        <f t="shared" si="11"/>
+        <v>871.71285363414131</v>
+      </c>
+      <c r="L50" s="10">
+        <v>17</v>
+      </c>
+      <c r="M50" s="10">
+        <v>13</v>
+      </c>
+      <c r="O50" s="10">
+        <v>0</v>
+      </c>
+      <c r="P50" s="10">
+        <f t="shared" si="12"/>
+        <v>65.611539999999991</v>
+      </c>
+      <c r="Q50" s="10">
+        <v>0</v>
+      </c>
+      <c r="R50" s="10">
+        <f t="shared" si="13"/>
+        <v>522.06734487986216</v>
+      </c>
+      <c r="S50" s="10">
+        <v>17</v>
+      </c>
+      <c r="T50" s="10">
+        <v>13</v>
+      </c>
+      <c r="V50" s="10">
+        <v>0</v>
+      </c>
+      <c r="W50" s="10">
+        <f t="shared" si="14"/>
+        <v>72.788340000000005</v>
+      </c>
+      <c r="X50" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="10">
+        <f t="shared" si="15"/>
+        <v>328.97812532549335</v>
+      </c>
+      <c r="Z50" s="10">
+        <v>17</v>
+      </c>
+      <c r="AA50" s="10">
+        <v>13</v>
+      </c>
+      <c r="AC50" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="10">
+        <f t="shared" si="16"/>
+        <v>79.965140000000005</v>
+      </c>
+      <c r="AE50" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF50" s="10">
+        <f t="shared" si="17"/>
+        <v>216.26789435285878</v>
+      </c>
+      <c r="AG50" s="10">
+        <v>17</v>
+      </c>
+      <c r="AH50" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A51" s="10">
         <v>0</v>
       </c>
@@ -1404,16 +3398,97 @@
       </c>
       <c r="D51" s="10">
         <f t="shared" si="9"/>
-        <v>1444.5449615321209</v>
+        <v>1549.4346231999307</v>
       </c>
       <c r="E51" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F51" s="10">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="G51" s="20"/>
+      <c r="H51" s="10">
+        <v>0</v>
+      </c>
+      <c r="I51" s="10">
+        <f t="shared" si="10"/>
+        <v>58.434740000000005</v>
+      </c>
+      <c r="J51" s="10">
+        <v>0</v>
+      </c>
+      <c r="K51" s="10">
+        <f t="shared" si="11"/>
+        <v>871.71285363414131</v>
+      </c>
+      <c r="L51" s="10">
+        <v>18</v>
+      </c>
+      <c r="M51" s="10">
+        <v>14</v>
+      </c>
+      <c r="O51" s="10">
+        <v>0</v>
+      </c>
+      <c r="P51" s="10">
+        <f t="shared" si="12"/>
+        <v>65.611539999999991</v>
+      </c>
+      <c r="Q51" s="10">
+        <v>0</v>
+      </c>
+      <c r="R51" s="10">
+        <f t="shared" si="13"/>
+        <v>522.06734487986216</v>
+      </c>
+      <c r="S51" s="10">
+        <v>18</v>
+      </c>
+      <c r="T51" s="10">
+        <v>14</v>
+      </c>
+      <c r="V51" s="10">
+        <v>0</v>
+      </c>
+      <c r="W51" s="10">
+        <f t="shared" si="14"/>
+        <v>72.788340000000005</v>
+      </c>
+      <c r="X51" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="10">
+        <f t="shared" si="15"/>
+        <v>328.97812532549335</v>
+      </c>
+      <c r="Z51" s="10">
+        <v>18</v>
+      </c>
+      <c r="AA51" s="10">
+        <v>14</v>
+      </c>
+      <c r="AC51" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="10">
+        <f t="shared" si="16"/>
+        <v>79.965140000000005</v>
+      </c>
+      <c r="AE51" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF51" s="10">
+        <f t="shared" si="17"/>
+        <v>216.26789435285878</v>
+      </c>
+      <c r="AG51" s="10">
+        <v>18</v>
+      </c>
+      <c r="AH51" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A52" s="10">
         <v>0</v>
       </c>
@@ -1426,16 +3501,97 @@
       </c>
       <c r="D52" s="10">
         <f t="shared" si="9"/>
-        <v>1444.5449615321209</v>
+        <v>1549.4346231999307</v>
       </c>
       <c r="E52" s="10">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F52" s="10">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="G52" s="20"/>
+      <c r="H52" s="10">
+        <v>0</v>
+      </c>
+      <c r="I52" s="10">
+        <f t="shared" si="10"/>
+        <v>58.434740000000005</v>
+      </c>
+      <c r="J52" s="10">
+        <v>0</v>
+      </c>
+      <c r="K52" s="10">
+        <f t="shared" si="11"/>
+        <v>871.71285363414131</v>
+      </c>
+      <c r="L52" s="10">
+        <v>19</v>
+      </c>
+      <c r="M52" s="10">
+        <v>15</v>
+      </c>
+      <c r="O52" s="10">
+        <v>0</v>
+      </c>
+      <c r="P52" s="10">
+        <f t="shared" si="12"/>
+        <v>65.611539999999991</v>
+      </c>
+      <c r="Q52" s="10">
+        <v>0</v>
+      </c>
+      <c r="R52" s="10">
+        <f t="shared" si="13"/>
+        <v>522.06734487986216</v>
+      </c>
+      <c r="S52" s="10">
+        <v>19</v>
+      </c>
+      <c r="T52" s="10">
+        <v>15</v>
+      </c>
+      <c r="V52" s="10">
+        <v>0</v>
+      </c>
+      <c r="W52" s="10">
+        <f t="shared" si="14"/>
+        <v>72.788340000000005</v>
+      </c>
+      <c r="X52" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="10">
+        <f t="shared" si="15"/>
+        <v>328.97812532549335</v>
+      </c>
+      <c r="Z52" s="10">
+        <v>19</v>
+      </c>
+      <c r="AA52" s="10">
+        <v>15</v>
+      </c>
+      <c r="AC52" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="10">
+        <f t="shared" si="16"/>
+        <v>79.965140000000005</v>
+      </c>
+      <c r="AE52" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF52" s="10">
+        <f t="shared" si="17"/>
+        <v>216.26789435285878</v>
+      </c>
+      <c r="AG52" s="10">
+        <v>19</v>
+      </c>
+      <c r="AH52" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A53" s="10">
         <v>0</v>
       </c>
@@ -1448,16 +3604,97 @@
       </c>
       <c r="D53" s="10">
         <f t="shared" si="9"/>
-        <v>1444.5449615321209</v>
+        <v>1549.4346231999307</v>
       </c>
       <c r="E53" s="10">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F53" s="10">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="G53" s="20"/>
+      <c r="H53" s="10">
+        <v>0</v>
+      </c>
+      <c r="I53" s="10">
+        <f t="shared" si="10"/>
+        <v>58.434740000000005</v>
+      </c>
+      <c r="J53" s="10">
+        <v>0</v>
+      </c>
+      <c r="K53" s="10">
+        <f t="shared" si="11"/>
+        <v>871.71285363414131</v>
+      </c>
+      <c r="L53" s="10">
+        <v>20</v>
+      </c>
+      <c r="M53" s="10">
+        <v>16</v>
+      </c>
+      <c r="O53" s="10">
+        <v>0</v>
+      </c>
+      <c r="P53" s="10">
+        <f t="shared" si="12"/>
+        <v>65.611539999999991</v>
+      </c>
+      <c r="Q53" s="10">
+        <v>0</v>
+      </c>
+      <c r="R53" s="10">
+        <f t="shared" si="13"/>
+        <v>522.06734487986216</v>
+      </c>
+      <c r="S53" s="10">
+        <v>20</v>
+      </c>
+      <c r="T53" s="10">
+        <v>16</v>
+      </c>
+      <c r="V53" s="10">
+        <v>0</v>
+      </c>
+      <c r="W53" s="10">
+        <f t="shared" si="14"/>
+        <v>72.788340000000005</v>
+      </c>
+      <c r="X53" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="10">
+        <f t="shared" si="15"/>
+        <v>328.97812532549335</v>
+      </c>
+      <c r="Z53" s="10">
+        <v>20</v>
+      </c>
+      <c r="AA53" s="10">
+        <v>16</v>
+      </c>
+      <c r="AC53" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="10">
+        <f t="shared" si="16"/>
+        <v>79.965140000000005</v>
+      </c>
+      <c r="AE53" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF53" s="10">
+        <f t="shared" si="17"/>
+        <v>216.26789435285878</v>
+      </c>
+      <c r="AG53" s="10">
+        <v>20</v>
+      </c>
+      <c r="AH53" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A54" s="10">
         <v>0</v>
       </c>
@@ -1470,16 +3707,97 @@
       </c>
       <c r="D54" s="10">
         <f t="shared" si="9"/>
-        <v>1444.5449615321209</v>
+        <v>1549.4346231999307</v>
       </c>
       <c r="E54" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F54" s="10">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="G54" s="20"/>
+      <c r="H54" s="10">
+        <v>0</v>
+      </c>
+      <c r="I54" s="10">
+        <f t="shared" si="10"/>
+        <v>58.434740000000005</v>
+      </c>
+      <c r="J54" s="10">
+        <v>0</v>
+      </c>
+      <c r="K54" s="10">
+        <f t="shared" si="11"/>
+        <v>871.71285363414131</v>
+      </c>
+      <c r="L54" s="10">
+        <v>21</v>
+      </c>
+      <c r="M54" s="10">
+        <v>17</v>
+      </c>
+      <c r="O54" s="10">
+        <v>0</v>
+      </c>
+      <c r="P54" s="10">
+        <f t="shared" si="12"/>
+        <v>65.611539999999991</v>
+      </c>
+      <c r="Q54" s="10">
+        <v>0</v>
+      </c>
+      <c r="R54" s="10">
+        <f t="shared" si="13"/>
+        <v>522.06734487986216</v>
+      </c>
+      <c r="S54" s="10">
+        <v>21</v>
+      </c>
+      <c r="T54" s="10">
+        <v>17</v>
+      </c>
+      <c r="V54" s="10">
+        <v>0</v>
+      </c>
+      <c r="W54" s="10">
+        <f t="shared" si="14"/>
+        <v>72.788340000000005</v>
+      </c>
+      <c r="X54" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="10">
+        <f t="shared" si="15"/>
+        <v>328.97812532549335</v>
+      </c>
+      <c r="Z54" s="10">
+        <v>21</v>
+      </c>
+      <c r="AA54" s="10">
+        <v>17</v>
+      </c>
+      <c r="AC54" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD54" s="10">
+        <f t="shared" si="16"/>
+        <v>79.965140000000005</v>
+      </c>
+      <c r="AE54" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF54" s="10">
+        <f t="shared" si="17"/>
+        <v>216.26789435285878</v>
+      </c>
+      <c r="AG54" s="10">
+        <v>21</v>
+      </c>
+      <c r="AH54" s="10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A55" s="10">
         <v>0</v>
       </c>
@@ -1492,16 +3810,97 @@
       </c>
       <c r="D55" s="10">
         <f t="shared" si="9"/>
-        <v>1444.5449615321209</v>
+        <v>1549.4346231999307</v>
       </c>
       <c r="E55" s="10">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F55" s="10">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="G55" s="20"/>
+      <c r="H55" s="10">
+        <v>0</v>
+      </c>
+      <c r="I55" s="10">
+        <f t="shared" si="10"/>
+        <v>58.434740000000005</v>
+      </c>
+      <c r="J55" s="10">
+        <v>0</v>
+      </c>
+      <c r="K55" s="10">
+        <f t="shared" si="11"/>
+        <v>871.71285363414131</v>
+      </c>
+      <c r="L55" s="10">
+        <v>22</v>
+      </c>
+      <c r="M55" s="10">
+        <v>18</v>
+      </c>
+      <c r="O55" s="10">
+        <v>0</v>
+      </c>
+      <c r="P55" s="10">
+        <f t="shared" si="12"/>
+        <v>65.611539999999991</v>
+      </c>
+      <c r="Q55" s="10">
+        <v>0</v>
+      </c>
+      <c r="R55" s="10">
+        <f t="shared" si="13"/>
+        <v>522.06734487986216</v>
+      </c>
+      <c r="S55" s="10">
+        <v>22</v>
+      </c>
+      <c r="T55" s="10">
+        <v>18</v>
+      </c>
+      <c r="V55" s="10">
+        <v>0</v>
+      </c>
+      <c r="W55" s="10">
+        <f t="shared" si="14"/>
+        <v>72.788340000000005</v>
+      </c>
+      <c r="X55" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y55" s="10">
+        <f t="shared" si="15"/>
+        <v>328.97812532549335</v>
+      </c>
+      <c r="Z55" s="10">
+        <v>22</v>
+      </c>
+      <c r="AA55" s="10">
+        <v>18</v>
+      </c>
+      <c r="AC55" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD55" s="10">
+        <f t="shared" si="16"/>
+        <v>79.965140000000005</v>
+      </c>
+      <c r="AE55" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF55" s="10">
+        <f t="shared" si="17"/>
+        <v>216.26789435285878</v>
+      </c>
+      <c r="AG55" s="10">
+        <v>22</v>
+      </c>
+      <c r="AH55" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A56" s="10">
         <v>0</v>
       </c>
@@ -1510,123 +3909,3439 @@
         <v>51.257939999999998</v>
       </c>
       <c r="C56" s="10">
-        <f>B26</f>
-        <v>3075.4764</v>
+        <v>0</v>
       </c>
       <c r="D56" s="10">
         <f t="shared" si="9"/>
-        <v>1444.5449615321209</v>
+        <v>1549.4346231999307</v>
       </c>
       <c r="E56" s="10">
+        <v>23</v>
+      </c>
+      <c r="F56" s="10">
+        <v>19</v>
+      </c>
+      <c r="G56" s="20"/>
+      <c r="H56" s="10">
+        <v>0</v>
+      </c>
+      <c r="I56" s="10">
+        <f t="shared" si="10"/>
+        <v>58.434740000000005</v>
+      </c>
+      <c r="J56" s="10">
+        <v>0</v>
+      </c>
+      <c r="K56" s="10">
+        <f t="shared" si="11"/>
+        <v>871.71285363414131</v>
+      </c>
+      <c r="L56" s="10">
+        <v>23</v>
+      </c>
+      <c r="M56" s="10">
+        <v>19</v>
+      </c>
+      <c r="O56" s="10">
+        <v>0</v>
+      </c>
+      <c r="P56" s="10">
+        <f t="shared" si="12"/>
+        <v>65.611539999999991</v>
+      </c>
+      <c r="Q56" s="10">
+        <v>0</v>
+      </c>
+      <c r="R56" s="10">
+        <f t="shared" si="13"/>
+        <v>522.06734487986216</v>
+      </c>
+      <c r="S56" s="10">
+        <v>23</v>
+      </c>
+      <c r="T56" s="10">
+        <v>19</v>
+      </c>
+      <c r="V56" s="10">
+        <v>0</v>
+      </c>
+      <c r="W56" s="10">
+        <f t="shared" si="14"/>
+        <v>72.788340000000005</v>
+      </c>
+      <c r="X56" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y56" s="10">
+        <f t="shared" si="15"/>
+        <v>328.97812532549335</v>
+      </c>
+      <c r="Z56" s="10">
+        <v>23</v>
+      </c>
+      <c r="AA56" s="10">
+        <v>19</v>
+      </c>
+      <c r="AC56" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD56" s="10">
+        <f t="shared" si="16"/>
+        <v>79.965140000000005</v>
+      </c>
+      <c r="AE56" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF56" s="10">
+        <f t="shared" si="17"/>
+        <v>216.26789435285878</v>
+      </c>
+      <c r="AG56" s="10">
+        <v>23</v>
+      </c>
+      <c r="AH56" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A57" s="10">
+        <v>0</v>
+      </c>
+      <c r="B57" s="10">
+        <f t="shared" si="8"/>
+        <v>51.257939999999998</v>
+      </c>
+      <c r="C57" s="10">
+        <f>B27</f>
+        <v>3075.4764</v>
+      </c>
+      <c r="D57" s="10">
+        <f t="shared" si="9"/>
+        <v>1549.4346231999307</v>
+      </c>
+      <c r="E57" s="10">
         <v>24</v>
       </c>
-      <c r="F56" s="10">
+      <c r="F57" s="10">
         <v>20</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="16" t="s">
+      <c r="G57" s="20"/>
+      <c r="H57" s="10">
+        <v>0</v>
+      </c>
+      <c r="I57" s="10">
+        <f t="shared" si="10"/>
+        <v>58.434740000000005</v>
+      </c>
+      <c r="J57" s="10">
+        <f>I27</f>
+        <v>3506.0844000000002</v>
+      </c>
+      <c r="K57" s="10">
+        <f t="shared" si="11"/>
+        <v>871.71285363414131</v>
+      </c>
+      <c r="L57" s="10">
+        <v>24</v>
+      </c>
+      <c r="M57" s="10">
+        <v>20</v>
+      </c>
+      <c r="O57" s="10">
+        <v>0</v>
+      </c>
+      <c r="P57" s="10">
+        <f t="shared" si="12"/>
+        <v>65.611539999999991</v>
+      </c>
+      <c r="Q57" s="10">
+        <f>P27</f>
+        <v>3936.6923999999995</v>
+      </c>
+      <c r="R57" s="10">
+        <f t="shared" si="13"/>
+        <v>522.06734487986216</v>
+      </c>
+      <c r="S57" s="10">
+        <v>24</v>
+      </c>
+      <c r="T57" s="10">
+        <v>20</v>
+      </c>
+      <c r="V57" s="10">
+        <v>0</v>
+      </c>
+      <c r="W57" s="10">
+        <f t="shared" si="14"/>
+        <v>72.788340000000005</v>
+      </c>
+      <c r="X57" s="10">
+        <f>W27</f>
+        <v>4367.3004000000001</v>
+      </c>
+      <c r="Y57" s="10">
+        <f t="shared" si="15"/>
+        <v>328.97812532549335</v>
+      </c>
+      <c r="Z57" s="10">
+        <v>24</v>
+      </c>
+      <c r="AA57" s="10">
+        <v>20</v>
+      </c>
+      <c r="AC57" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD57" s="10">
+        <f t="shared" si="16"/>
+        <v>79.965140000000005</v>
+      </c>
+      <c r="AE57" s="10">
+        <f>AD27</f>
+        <v>4797.9084000000003</v>
+      </c>
+      <c r="AF57" s="10">
+        <f t="shared" si="17"/>
+        <v>216.26789435285878</v>
+      </c>
+      <c r="AG57" s="10">
+        <v>24</v>
+      </c>
+      <c r="AH57" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="G58" s="20"/>
+    </row>
+    <row r="59" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A59" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I59" s="15"/>
+      <c r="J59" s="15"/>
+      <c r="O59" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="P59" s="15"/>
+      <c r="Q59" s="15"/>
+      <c r="V59" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="W59" s="15"/>
+      <c r="X59" s="15"/>
+      <c r="AC59" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD59" s="15"/>
+      <c r="AE59" s="15"/>
+    </row>
+    <row r="60" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B60" s="13">
+        <f>NPV(5%,A34:A37)</f>
+        <v>4543.9529546331005</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G60" s="20"/>
+      <c r="H60" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I60" s="13">
+        <f>NPV(5%,H34:H37)</f>
+        <v>5180.1673940899109</v>
+      </c>
+      <c r="J60" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P60" s="13">
+        <f>NPV(5%,O34:O37)</f>
+        <v>5816.3818335467204</v>
+      </c>
+      <c r="Q60" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="V60" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W60" s="13">
+        <f>NPV(5%,V34:V37)</f>
+        <v>6452.5962730035317</v>
+      </c>
+      <c r="X60" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC60" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD60" s="13">
+        <f>NPV(5%,AC34:AC37)</f>
+        <v>7088.810712460343</v>
+      </c>
+      <c r="AE60" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="61" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B58" s="16"/>
-      <c r="C58" s="16"/>
-    </row>
-    <row r="59" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B59" s="13">
-        <f>NPV(5%,A33:A36)</f>
-        <v>4543.9529546331005</v>
-      </c>
-      <c r="C59" s="11" t="s">
+      <c r="B61" s="13">
+        <f>NPV(5%,B34:B37,B38:B57)</f>
+        <v>525.53183499080615</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G61" s="20"/>
+      <c r="H61" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I61" s="13">
+        <f>NPV(5%,I34:I37,I38:I57)</f>
+        <v>599.11334984220343</v>
+      </c>
+      <c r="J61" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="O61" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P61" s="13">
+        <f>NPV(5%,P34:P37,P38:P57)</f>
+        <v>672.69486469360015</v>
+      </c>
+      <c r="Q61" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="V61" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W61" s="13">
+        <f>NPV(5%,W34:W37,W38:W57)</f>
+        <v>746.27637954499744</v>
+      </c>
+      <c r="X61" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC61" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD61" s="13">
+        <f>NPV(5%,AD34:AD37,AD38:AD57)</f>
+        <v>819.85789439639439</v>
+      </c>
+      <c r="AE61" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="62" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62" s="13">
+        <f>NPV(5%,C34:C37,C38:C56,C57)</f>
+        <v>953.60654047160722</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G62" s="20"/>
+      <c r="H62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I62" s="13">
+        <f>NPV(5%,J34:J37,J38:J56,J57)</f>
+        <v>1087.1242631825985</v>
+      </c>
+      <c r="J62" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="O62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P62" s="13">
+        <f>NPV(5%,Q34:Q37,Q38:Q56,Q57)</f>
+        <v>1220.6419858935897</v>
+      </c>
+      <c r="Q62" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="V62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="W62" s="13">
+        <f>NPV(5%,X34:X37,X38:X56,X57)</f>
+        <v>1354.1597086045811</v>
+      </c>
+      <c r="X62" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD62" s="13">
+        <f>NPV(5%,AE34:AE37,AE38:AE56,AE57)</f>
+        <v>1487.6774313155727</v>
+      </c>
+      <c r="AE62" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="63" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B63" s="13">
+        <f>NPV(5%,D34:D37,D38:D57)</f>
+        <v>15885.874865992431</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G63" s="20"/>
+      <c r="H63" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I63" s="13">
+        <f>NPV(5%,K34:K37,K38:K57)</f>
+        <v>8937.4027819967469</v>
+      </c>
+      <c r="J63" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="O63" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P63" s="13">
+        <f>NPV(5%,R34:R37,R38:R57)</f>
+        <v>5352.5953197395756</v>
+      </c>
+      <c r="Q63" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="V63" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="W63" s="13">
+        <f>NPV(5%,Y34:Y37,Y38:Y57)</f>
+        <v>3372.9111601859522</v>
+      </c>
+      <c r="X63" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC63" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD63" s="13">
+        <f>NPV(5%,AF34:AF37,AF38:AF57)</f>
+        <v>2217.3279567781242</v>
+      </c>
+      <c r="AE63" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="64" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A64" s="1"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="11"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="11"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="4"/>
+      <c r="Q64" s="11"/>
+      <c r="V64" s="1"/>
+      <c r="W64" s="4"/>
+      <c r="X64" s="11"/>
+      <c r="AC64" s="1"/>
+      <c r="AD64" s="4"/>
+      <c r="AE64" s="11"/>
+    </row>
+    <row r="65" spans="1:31" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B65" s="13">
+        <f>B60+B61</f>
+        <v>5069.4847896239062</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G65" s="20"/>
+      <c r="H65" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I65" s="13">
+        <f>I60+I61</f>
+        <v>5779.2807439321141</v>
+      </c>
+      <c r="J65" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="O65" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P65" s="13">
+        <f>P60+P61</f>
+        <v>6489.0766982403202</v>
+      </c>
+      <c r="Q65" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="V65" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W65" s="13">
+        <f>W60+W61</f>
+        <v>7198.872652548529</v>
+      </c>
+      <c r="X65" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC65" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD65" s="13">
+        <f>AD60+AD61</f>
+        <v>7908.6686068567378</v>
+      </c>
+      <c r="AE65" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="66" spans="1:31" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B66" s="13">
+        <f>B65-B62</f>
+        <v>4115.8782491522988</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G66" s="20"/>
+      <c r="H66" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I66" s="13">
+        <f>I65-I62</f>
+        <v>4692.156480749516</v>
+      </c>
+      <c r="J66" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="O66" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P66" s="13">
+        <f>P65-P62</f>
+        <v>5268.4347123467305</v>
+      </c>
+      <c r="Q66" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="V66" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W66" s="13">
+        <f>W65-W62</f>
+        <v>5844.7129439439477</v>
+      </c>
+      <c r="X66" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC66" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD66" s="13">
+        <f>AD65-AD62</f>
+        <v>6420.9911755411649</v>
+      </c>
+      <c r="AE66" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="67" spans="1:31" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B67" s="13">
+        <f>B66+B63</f>
+        <v>20001.753115144729</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G67" s="20"/>
+      <c r="H67" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I67" s="13">
+        <f>I66+I63</f>
+        <v>13629.559262746263</v>
+      </c>
+      <c r="J67" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="O67" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P67" s="13">
+        <f>P66+P63</f>
+        <v>10621.030032086306</v>
+      </c>
+      <c r="Q67" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="V67" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="W67" s="13">
+        <f>W66+W63</f>
+        <v>9217.6241041298999</v>
+      </c>
+      <c r="X67" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC67" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD67" s="13">
+        <f>AD66+AD63</f>
+        <v>8638.3191323192896</v>
+      </c>
+      <c r="AE67" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="68" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="G68" s="20"/>
+    </row>
+    <row r="69" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A69" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B69" s="19"/>
+      <c r="C69" s="19"/>
+      <c r="G69" s="20"/>
+      <c r="H69" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I69" s="19"/>
+      <c r="J69" s="19"/>
+      <c r="O69" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="P69" s="19"/>
+      <c r="Q69" s="19"/>
+      <c r="V69" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="W69" s="19"/>
+      <c r="X69" s="19"/>
+    </row>
+    <row r="70" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A70" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="G70" s="20"/>
+      <c r="H70" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I70" s="14"/>
+      <c r="J70" s="14"/>
+      <c r="O70" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="P70" s="14"/>
+      <c r="Q70" s="14"/>
+      <c r="V70" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="W70" s="14"/>
+      <c r="X70" s="14"/>
+    </row>
+    <row r="71" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B71" s="5">
+        <v>4</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G71" s="20"/>
+      <c r="H71" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I71" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="J71" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="O71" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P71" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q71" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="V71" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W71" s="5">
+        <v>5.5</v>
+      </c>
+      <c r="X71" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" s="5">
+        <f>F16</f>
+        <v>335.65033495475927</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G72" s="20"/>
+      <c r="H72" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I72" s="5">
+        <f>F17</f>
+        <v>317.46974646415549</v>
+      </c>
+      <c r="J72" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="O72" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P72" s="5">
+        <f>F18</f>
+        <v>309.30669855857798</v>
+      </c>
+      <c r="Q72" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="V72" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="W72" s="5">
+        <f>F19</f>
+        <v>305.56824080954925</v>
+      </c>
+      <c r="X72" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B73" s="5">
+        <f>C16</f>
+        <v>5085.7939999999999</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G73" s="20"/>
+      <c r="H73" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I73" s="5">
+        <f>C17</f>
+        <v>5798.4740000000002</v>
+      </c>
+      <c r="J73" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="O73" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P73" s="5">
+        <f>C18</f>
+        <v>6511.1539999999995</v>
+      </c>
+      <c r="Q73" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="V73" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W73" s="5">
+        <f>C19</f>
+        <v>7223.8339999999998</v>
+      </c>
+      <c r="X73" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:31" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B74" s="6">
+        <f>0.01*B73</f>
+        <v>50.857939999999999</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G74" s="20"/>
+      <c r="H74" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I74" s="6">
+        <f>0.01*I73</f>
+        <v>57.984740000000002</v>
+      </c>
+      <c r="J74" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="O74" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P74" s="6">
+        <f>0.01*P73</f>
+        <v>65.111539999999991</v>
+      </c>
+      <c r="Q74" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="V74" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W74" s="6">
+        <f>0.01*W73</f>
+        <v>72.238339999999994</v>
+      </c>
+      <c r="X74" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B75" s="6">
+        <f>0.6*B73</f>
+        <v>3051.4764</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G75" s="20"/>
+      <c r="H75" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I75" s="6">
+        <f>0.6*I73</f>
+        <v>3479.0844000000002</v>
+      </c>
+      <c r="J75" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="O75" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P75" s="6">
+        <f>0.6*P73</f>
+        <v>3906.6923999999995</v>
+      </c>
+      <c r="Q75" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="V75" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="W75" s="6">
+        <f>0.6*W73</f>
+        <v>4334.3004000000001</v>
+      </c>
+      <c r="X75" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" spans="1:31" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B76" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G76" s="20"/>
+      <c r="H76" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I76" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="J76" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="O76" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P76" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="Q76" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="V76" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W76" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="X76" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="1:31" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B77" s="6">
+        <v>20</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G77" s="20"/>
+      <c r="H77" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I77" s="6">
+        <v>20</v>
+      </c>
+      <c r="J77" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="O77" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P77" s="6">
+        <v>20</v>
+      </c>
+      <c r="Q77" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="V77" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="W77" s="6">
+        <v>20</v>
+      </c>
+      <c r="X77" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" spans="1:31" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B78" s="6">
+        <v>4</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G78" s="20"/>
+      <c r="H78" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I78" s="6">
+        <v>4</v>
+      </c>
+      <c r="J78" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="O78" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P78" s="6">
+        <v>4</v>
+      </c>
+      <c r="Q78" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="V78" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="W78" s="6">
+        <v>4</v>
+      </c>
+      <c r="X78" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="G79" s="20"/>
+    </row>
+    <row r="80" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A80" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="G80" s="20"/>
+      <c r="H80" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I80" s="14"/>
+      <c r="J80" s="14"/>
+      <c r="O80" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="P80" s="14"/>
+      <c r="Q80" s="14"/>
+      <c r="V80" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="W80" s="14"/>
+      <c r="X80" s="14"/>
+    </row>
+    <row r="81" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A81" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F81" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G81" s="20"/>
+      <c r="H81" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I81" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J81" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K81" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L81" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="M81" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="O81" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="P81" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q81" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="R81" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="S81" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="T81" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="V81" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="W81" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="X81" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y81" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z81" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA81" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A82" s="10">
+        <f>B73/$B78</f>
+        <v>1271.4485</v>
+      </c>
+      <c r="B82" s="10">
+        <v>0</v>
+      </c>
+      <c r="C82" s="10">
+        <v>0</v>
+      </c>
+      <c r="D82" s="10">
+        <v>0</v>
+      </c>
+      <c r="E82" s="10">
+        <v>1</v>
+      </c>
+      <c r="F82" s="10"/>
+      <c r="G82" s="20"/>
+      <c r="H82" s="10">
+        <f>I73/$I78</f>
+        <v>1449.6185</v>
+      </c>
+      <c r="I82" s="10">
+        <v>0</v>
+      </c>
+      <c r="J82" s="10">
+        <v>0</v>
+      </c>
+      <c r="K82" s="10">
+        <v>0</v>
+      </c>
+      <c r="L82" s="10">
+        <v>1</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c r="O82" s="10">
+        <f>P73/$I78</f>
+        <v>1627.7884999999999</v>
+      </c>
+      <c r="P82" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q82" s="10">
+        <v>0</v>
+      </c>
+      <c r="R82" s="10">
+        <v>0</v>
+      </c>
+      <c r="S82" s="10">
+        <v>1</v>
+      </c>
+      <c r="T82" s="10"/>
+      <c r="V82" s="10">
+        <f>W73/$I78</f>
+        <v>1805.9585</v>
+      </c>
+      <c r="W82" s="10">
+        <v>0</v>
+      </c>
+      <c r="X82" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y82" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z82" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA82" s="10"/>
+    </row>
+    <row r="83" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A83" s="10">
+        <f>B73/B78</f>
+        <v>1271.4485</v>
+      </c>
+      <c r="B83" s="10">
+        <v>0</v>
+      </c>
+      <c r="C83" s="10">
+        <v>0</v>
+      </c>
+      <c r="D83" s="10">
+        <v>0</v>
+      </c>
+      <c r="E83" s="10">
+        <v>2</v>
+      </c>
+      <c r="F83" s="10"/>
+      <c r="G83" s="20"/>
+      <c r="H83" s="10">
+        <f>I73/I78</f>
+        <v>1449.6185</v>
+      </c>
+      <c r="I83" s="10">
+        <v>0</v>
+      </c>
+      <c r="J83" s="10">
+        <v>0</v>
+      </c>
+      <c r="K83" s="10">
+        <v>0</v>
+      </c>
+      <c r="L83" s="10">
+        <v>2</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c r="O83" s="10">
+        <f>P73/P78</f>
+        <v>1627.7884999999999</v>
+      </c>
+      <c r="P83" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="10">
+        <v>0</v>
+      </c>
+      <c r="R83" s="10">
+        <v>0</v>
+      </c>
+      <c r="S83" s="10">
+        <v>2</v>
+      </c>
+      <c r="T83" s="10"/>
+      <c r="V83" s="10">
+        <f>W73/W78</f>
+        <v>1805.9585</v>
+      </c>
+      <c r="W83" s="10">
+        <v>0</v>
+      </c>
+      <c r="X83" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="10">
+        <v>2</v>
+      </c>
+      <c r="AA83" s="10"/>
+    </row>
+    <row r="84" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A84" s="10">
+        <f>B73/B78</f>
+        <v>1271.4485</v>
+      </c>
+      <c r="B84" s="10">
+        <v>0</v>
+      </c>
+      <c r="C84" s="10">
+        <v>0</v>
+      </c>
+      <c r="D84" s="10">
+        <v>0</v>
+      </c>
+      <c r="E84" s="10">
+        <v>3</v>
+      </c>
+      <c r="F84" s="10"/>
+      <c r="G84" s="20"/>
+      <c r="H84" s="10">
+        <f>I73/I78</f>
+        <v>1449.6185</v>
+      </c>
+      <c r="I84" s="10">
+        <v>0</v>
+      </c>
+      <c r="J84" s="10">
+        <v>0</v>
+      </c>
+      <c r="K84" s="10">
+        <v>0</v>
+      </c>
+      <c r="L84" s="10">
+        <v>3</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c r="O84" s="10">
+        <f>P73/P78</f>
+        <v>1627.7884999999999</v>
+      </c>
+      <c r="P84" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="10">
+        <v>0</v>
+      </c>
+      <c r="R84" s="10">
+        <v>0</v>
+      </c>
+      <c r="S84" s="10">
+        <v>3</v>
+      </c>
+      <c r="T84" s="10"/>
+      <c r="V84" s="10">
+        <f>W73/W78</f>
+        <v>1805.9585</v>
+      </c>
+      <c r="W84" s="10">
+        <v>0</v>
+      </c>
+      <c r="X84" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="10">
+        <v>3</v>
+      </c>
+      <c r="AA84" s="10"/>
+    </row>
+    <row r="85" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A85" s="10">
+        <f>B73/B78</f>
+        <v>1271.4485</v>
+      </c>
+      <c r="B85" s="10">
+        <v>0</v>
+      </c>
+      <c r="C85" s="10">
+        <v>0</v>
+      </c>
+      <c r="D85" s="10">
+        <v>0</v>
+      </c>
+      <c r="E85" s="10">
+        <v>4</v>
+      </c>
+      <c r="F85" s="10"/>
+      <c r="G85" s="20"/>
+      <c r="H85" s="10">
+        <f>I73/I78</f>
+        <v>1449.6185</v>
+      </c>
+      <c r="I85" s="10">
+        <v>0</v>
+      </c>
+      <c r="J85" s="10">
+        <v>0</v>
+      </c>
+      <c r="K85" s="10">
+        <v>0</v>
+      </c>
+      <c r="L85" s="10">
+        <v>4</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c r="O85" s="10">
+        <f>P73/P78</f>
+        <v>1627.7884999999999</v>
+      </c>
+      <c r="P85" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="10">
+        <v>0</v>
+      </c>
+      <c r="R85" s="10">
+        <v>0</v>
+      </c>
+      <c r="S85" s="10">
+        <v>4</v>
+      </c>
+      <c r="T85" s="10"/>
+      <c r="V85" s="10">
+        <f>W73/W78</f>
+        <v>1805.9585</v>
+      </c>
+      <c r="W85" s="10">
+        <v>0</v>
+      </c>
+      <c r="X85" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="10">
+        <v>4</v>
+      </c>
+      <c r="AA85" s="10"/>
+    </row>
+    <row r="86" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A86" s="10">
+        <v>0</v>
+      </c>
+      <c r="B86" s="10">
+        <f>$B$74</f>
+        <v>50.857939999999999</v>
+      </c>
+      <c r="C86" s="10">
+        <v>0</v>
+      </c>
+      <c r="D86" s="10">
+        <f>$B$72</f>
+        <v>335.65033495475927</v>
+      </c>
+      <c r="E86" s="10">
+        <v>5</v>
+      </c>
+      <c r="F86" s="10">
+        <v>1</v>
+      </c>
+      <c r="G86" s="20"/>
+      <c r="H86" s="10">
+        <v>0</v>
+      </c>
+      <c r="I86" s="10">
+        <f>$I$74</f>
+        <v>57.984740000000002</v>
+      </c>
+      <c r="J86" s="10">
+        <v>0</v>
+      </c>
+      <c r="K86" s="10">
+        <f>$I$72</f>
+        <v>317.46974646415549</v>
+      </c>
+      <c r="L86" s="10">
+        <v>5</v>
+      </c>
+      <c r="M86" s="10">
+        <v>1</v>
+      </c>
+      <c r="O86" s="10">
+        <v>0</v>
+      </c>
+      <c r="P86" s="10">
+        <f>$P$74</f>
+        <v>65.111539999999991</v>
+      </c>
+      <c r="Q86" s="10">
+        <v>0</v>
+      </c>
+      <c r="R86" s="10">
+        <f>$P$72</f>
+        <v>309.30669855857798</v>
+      </c>
+      <c r="S86" s="10">
+        <v>5</v>
+      </c>
+      <c r="T86" s="10">
+        <v>1</v>
+      </c>
+      <c r="V86" s="10">
+        <v>0</v>
+      </c>
+      <c r="W86" s="10">
+        <f>$W$74</f>
+        <v>72.238339999999994</v>
+      </c>
+      <c r="X86" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="10">
+        <f>$W$72</f>
+        <v>305.56824080954925</v>
+      </c>
+      <c r="Z86" s="10">
+        <v>5</v>
+      </c>
+      <c r="AA86" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A87" s="10">
+        <v>0</v>
+      </c>
+      <c r="B87" s="10">
+        <f t="shared" ref="B87:B105" si="18">$B$74</f>
+        <v>50.857939999999999</v>
+      </c>
+      <c r="C87" s="10">
+        <v>0</v>
+      </c>
+      <c r="D87" s="10">
+        <f t="shared" ref="D87:D105" si="19">$B$72</f>
+        <v>335.65033495475927</v>
+      </c>
+      <c r="E87" s="10">
+        <v>6</v>
+      </c>
+      <c r="F87" s="10">
+        <v>2</v>
+      </c>
+      <c r="G87" s="20"/>
+      <c r="H87" s="10">
+        <v>0</v>
+      </c>
+      <c r="I87" s="10">
+        <f t="shared" ref="I87:I105" si="20">$I$74</f>
+        <v>57.984740000000002</v>
+      </c>
+      <c r="J87" s="10">
+        <v>0</v>
+      </c>
+      <c r="K87" s="10">
+        <f t="shared" ref="K87:K105" si="21">$I$72</f>
+        <v>317.46974646415549</v>
+      </c>
+      <c r="L87" s="10">
+        <v>6</v>
+      </c>
+      <c r="M87" s="10">
+        <v>2</v>
+      </c>
+      <c r="O87" s="10">
+        <v>0</v>
+      </c>
+      <c r="P87" s="10">
+        <f t="shared" ref="P87:P105" si="22">$P$74</f>
+        <v>65.111539999999991</v>
+      </c>
+      <c r="Q87" s="10">
+        <v>0</v>
+      </c>
+      <c r="R87" s="10">
+        <f t="shared" ref="R87:R105" si="23">$P$72</f>
+        <v>309.30669855857798</v>
+      </c>
+      <c r="S87" s="10">
+        <v>6</v>
+      </c>
+      <c r="T87" s="10">
+        <v>2</v>
+      </c>
+      <c r="V87" s="10">
+        <v>0</v>
+      </c>
+      <c r="W87" s="10">
+        <f t="shared" ref="W87:W105" si="24">$W$74</f>
+        <v>72.238339999999994</v>
+      </c>
+      <c r="X87" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="10">
+        <f t="shared" ref="Y87:Y105" si="25">$W$72</f>
+        <v>305.56824080954925</v>
+      </c>
+      <c r="Z87" s="10">
+        <v>6</v>
+      </c>
+      <c r="AA87" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A88" s="10">
+        <v>0</v>
+      </c>
+      <c r="B88" s="10">
+        <f t="shared" si="18"/>
+        <v>50.857939999999999</v>
+      </c>
+      <c r="C88" s="10">
+        <v>0</v>
+      </c>
+      <c r="D88" s="10">
+        <f t="shared" si="19"/>
+        <v>335.65033495475927</v>
+      </c>
+      <c r="E88" s="10">
+        <v>7</v>
+      </c>
+      <c r="F88" s="10">
+        <v>3</v>
+      </c>
+      <c r="G88" s="20"/>
+      <c r="H88" s="10">
+        <v>0</v>
+      </c>
+      <c r="I88" s="10">
+        <f t="shared" si="20"/>
+        <v>57.984740000000002</v>
+      </c>
+      <c r="J88" s="10">
+        <v>0</v>
+      </c>
+      <c r="K88" s="10">
+        <f t="shared" si="21"/>
+        <v>317.46974646415549</v>
+      </c>
+      <c r="L88" s="10">
+        <v>7</v>
+      </c>
+      <c r="M88" s="10">
+        <v>3</v>
+      </c>
+      <c r="O88" s="10">
+        <v>0</v>
+      </c>
+      <c r="P88" s="10">
+        <f t="shared" si="22"/>
+        <v>65.111539999999991</v>
+      </c>
+      <c r="Q88" s="10">
+        <v>0</v>
+      </c>
+      <c r="R88" s="10">
+        <f t="shared" si="23"/>
+        <v>309.30669855857798</v>
+      </c>
+      <c r="S88" s="10">
+        <v>7</v>
+      </c>
+      <c r="T88" s="10">
+        <v>3</v>
+      </c>
+      <c r="V88" s="10">
+        <v>0</v>
+      </c>
+      <c r="W88" s="10">
+        <f t="shared" si="24"/>
+        <v>72.238339999999994</v>
+      </c>
+      <c r="X88" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="10">
+        <f t="shared" si="25"/>
+        <v>305.56824080954925</v>
+      </c>
+      <c r="Z88" s="10">
+        <v>7</v>
+      </c>
+      <c r="AA88" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A89" s="10">
+        <v>0</v>
+      </c>
+      <c r="B89" s="10">
+        <f t="shared" si="18"/>
+        <v>50.857939999999999</v>
+      </c>
+      <c r="C89" s="10">
+        <v>0</v>
+      </c>
+      <c r="D89" s="10">
+        <f t="shared" si="19"/>
+        <v>335.65033495475927</v>
+      </c>
+      <c r="E89" s="10">
+        <v>8</v>
+      </c>
+      <c r="F89" s="10">
+        <v>4</v>
+      </c>
+      <c r="G89" s="20"/>
+      <c r="H89" s="10">
+        <v>0</v>
+      </c>
+      <c r="I89" s="10">
+        <f t="shared" si="20"/>
+        <v>57.984740000000002</v>
+      </c>
+      <c r="J89" s="10">
+        <v>0</v>
+      </c>
+      <c r="K89" s="10">
+        <f t="shared" si="21"/>
+        <v>317.46974646415549</v>
+      </c>
+      <c r="L89" s="10">
+        <v>8</v>
+      </c>
+      <c r="M89" s="10">
+        <v>4</v>
+      </c>
+      <c r="O89" s="10">
+        <v>0</v>
+      </c>
+      <c r="P89" s="10">
+        <f t="shared" si="22"/>
+        <v>65.111539999999991</v>
+      </c>
+      <c r="Q89" s="10">
+        <v>0</v>
+      </c>
+      <c r="R89" s="10">
+        <f t="shared" si="23"/>
+        <v>309.30669855857798</v>
+      </c>
+      <c r="S89" s="10">
+        <v>8</v>
+      </c>
+      <c r="T89" s="10">
+        <v>4</v>
+      </c>
+      <c r="V89" s="10">
+        <v>0</v>
+      </c>
+      <c r="W89" s="10">
+        <f t="shared" si="24"/>
+        <v>72.238339999999994</v>
+      </c>
+      <c r="X89" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="10">
+        <f t="shared" si="25"/>
+        <v>305.56824080954925</v>
+      </c>
+      <c r="Z89" s="10">
+        <v>8</v>
+      </c>
+      <c r="AA89" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A90" s="10">
+        <v>0</v>
+      </c>
+      <c r="B90" s="10">
+        <f t="shared" si="18"/>
+        <v>50.857939999999999</v>
+      </c>
+      <c r="C90" s="10">
+        <v>0</v>
+      </c>
+      <c r="D90" s="10">
+        <f t="shared" si="19"/>
+        <v>335.65033495475927</v>
+      </c>
+      <c r="E90" s="10">
+        <v>9</v>
+      </c>
+      <c r="F90" s="10">
+        <v>5</v>
+      </c>
+      <c r="G90" s="20"/>
+      <c r="H90" s="10">
+        <v>0</v>
+      </c>
+      <c r="I90" s="10">
+        <f t="shared" si="20"/>
+        <v>57.984740000000002</v>
+      </c>
+      <c r="J90" s="10">
+        <v>0</v>
+      </c>
+      <c r="K90" s="10">
+        <f t="shared" si="21"/>
+        <v>317.46974646415549</v>
+      </c>
+      <c r="L90" s="10">
+        <v>9</v>
+      </c>
+      <c r="M90" s="10">
+        <v>5</v>
+      </c>
+      <c r="O90" s="10">
+        <v>0</v>
+      </c>
+      <c r="P90" s="10">
+        <f t="shared" si="22"/>
+        <v>65.111539999999991</v>
+      </c>
+      <c r="Q90" s="10">
+        <v>0</v>
+      </c>
+      <c r="R90" s="10">
+        <f t="shared" si="23"/>
+        <v>309.30669855857798</v>
+      </c>
+      <c r="S90" s="10">
+        <v>9</v>
+      </c>
+      <c r="T90" s="10">
+        <v>5</v>
+      </c>
+      <c r="V90" s="10">
+        <v>0</v>
+      </c>
+      <c r="W90" s="10">
+        <f t="shared" si="24"/>
+        <v>72.238339999999994</v>
+      </c>
+      <c r="X90" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y90" s="10">
+        <f t="shared" si="25"/>
+        <v>305.56824080954925</v>
+      </c>
+      <c r="Z90" s="10">
+        <v>9</v>
+      </c>
+      <c r="AA90" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A91" s="10">
+        <v>0</v>
+      </c>
+      <c r="B91" s="10">
+        <f t="shared" si="18"/>
+        <v>50.857939999999999</v>
+      </c>
+      <c r="C91" s="10">
+        <v>0</v>
+      </c>
+      <c r="D91" s="10">
+        <f t="shared" si="19"/>
+        <v>335.65033495475927</v>
+      </c>
+      <c r="E91" s="10">
+        <v>10</v>
+      </c>
+      <c r="F91" s="10">
+        <v>6</v>
+      </c>
+      <c r="G91" s="20"/>
+      <c r="H91" s="10">
+        <v>0</v>
+      </c>
+      <c r="I91" s="10">
+        <f t="shared" si="20"/>
+        <v>57.984740000000002</v>
+      </c>
+      <c r="J91" s="10">
+        <v>0</v>
+      </c>
+      <c r="K91" s="10">
+        <f t="shared" si="21"/>
+        <v>317.46974646415549</v>
+      </c>
+      <c r="L91" s="10">
+        <v>10</v>
+      </c>
+      <c r="M91" s="10">
+        <v>6</v>
+      </c>
+      <c r="O91" s="10">
+        <v>0</v>
+      </c>
+      <c r="P91" s="10">
+        <f t="shared" si="22"/>
+        <v>65.111539999999991</v>
+      </c>
+      <c r="Q91" s="10">
+        <v>0</v>
+      </c>
+      <c r="R91" s="10">
+        <f t="shared" si="23"/>
+        <v>309.30669855857798</v>
+      </c>
+      <c r="S91" s="10">
+        <v>10</v>
+      </c>
+      <c r="T91" s="10">
+        <v>6</v>
+      </c>
+      <c r="V91" s="10">
+        <v>0</v>
+      </c>
+      <c r="W91" s="10">
+        <f t="shared" si="24"/>
+        <v>72.238339999999994</v>
+      </c>
+      <c r="X91" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="10">
+        <f t="shared" si="25"/>
+        <v>305.56824080954925</v>
+      </c>
+      <c r="Z91" s="10">
+        <v>10</v>
+      </c>
+      <c r="AA91" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A92" s="10">
+        <v>0</v>
+      </c>
+      <c r="B92" s="10">
+        <f t="shared" si="18"/>
+        <v>50.857939999999999</v>
+      </c>
+      <c r="C92" s="10">
+        <v>0</v>
+      </c>
+      <c r="D92" s="10">
+        <f t="shared" si="19"/>
+        <v>335.65033495475927</v>
+      </c>
+      <c r="E92" s="10">
+        <v>11</v>
+      </c>
+      <c r="F92" s="10">
+        <v>7</v>
+      </c>
+      <c r="G92" s="20"/>
+      <c r="H92" s="10">
+        <v>0</v>
+      </c>
+      <c r="I92" s="10">
+        <f t="shared" si="20"/>
+        <v>57.984740000000002</v>
+      </c>
+      <c r="J92" s="10">
+        <v>0</v>
+      </c>
+      <c r="K92" s="10">
+        <f t="shared" si="21"/>
+        <v>317.46974646415549</v>
+      </c>
+      <c r="L92" s="10">
+        <v>11</v>
+      </c>
+      <c r="M92" s="10">
+        <v>7</v>
+      </c>
+      <c r="O92" s="10">
+        <v>0</v>
+      </c>
+      <c r="P92" s="10">
+        <f t="shared" si="22"/>
+        <v>65.111539999999991</v>
+      </c>
+      <c r="Q92" s="10">
+        <v>0</v>
+      </c>
+      <c r="R92" s="10">
+        <f t="shared" si="23"/>
+        <v>309.30669855857798</v>
+      </c>
+      <c r="S92" s="10">
+        <v>11</v>
+      </c>
+      <c r="T92" s="10">
+        <v>7</v>
+      </c>
+      <c r="V92" s="10">
+        <v>0</v>
+      </c>
+      <c r="W92" s="10">
+        <f t="shared" si="24"/>
+        <v>72.238339999999994</v>
+      </c>
+      <c r="X92" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="10">
+        <f t="shared" si="25"/>
+        <v>305.56824080954925</v>
+      </c>
+      <c r="Z92" s="10">
+        <v>11</v>
+      </c>
+      <c r="AA92" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A93" s="10">
+        <v>0</v>
+      </c>
+      <c r="B93" s="10">
+        <f t="shared" si="18"/>
+        <v>50.857939999999999</v>
+      </c>
+      <c r="C93" s="10">
+        <v>0</v>
+      </c>
+      <c r="D93" s="10">
+        <f t="shared" si="19"/>
+        <v>335.65033495475927</v>
+      </c>
+      <c r="E93" s="10">
+        <v>12</v>
+      </c>
+      <c r="F93" s="10">
+        <v>8</v>
+      </c>
+      <c r="G93" s="20"/>
+      <c r="H93" s="10">
+        <v>0</v>
+      </c>
+      <c r="I93" s="10">
+        <f t="shared" si="20"/>
+        <v>57.984740000000002</v>
+      </c>
+      <c r="J93" s="10">
+        <v>0</v>
+      </c>
+      <c r="K93" s="10">
+        <f t="shared" si="21"/>
+        <v>317.46974646415549</v>
+      </c>
+      <c r="L93" s="10">
+        <v>12</v>
+      </c>
+      <c r="M93" s="10">
+        <v>8</v>
+      </c>
+      <c r="O93" s="10">
+        <v>0</v>
+      </c>
+      <c r="P93" s="10">
+        <f t="shared" si="22"/>
+        <v>65.111539999999991</v>
+      </c>
+      <c r="Q93" s="10">
+        <v>0</v>
+      </c>
+      <c r="R93" s="10">
+        <f t="shared" si="23"/>
+        <v>309.30669855857798</v>
+      </c>
+      <c r="S93" s="10">
+        <v>12</v>
+      </c>
+      <c r="T93" s="10">
+        <v>8</v>
+      </c>
+      <c r="V93" s="10">
+        <v>0</v>
+      </c>
+      <c r="W93" s="10">
+        <f t="shared" si="24"/>
+        <v>72.238339999999994</v>
+      </c>
+      <c r="X93" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="10">
+        <f t="shared" si="25"/>
+        <v>305.56824080954925</v>
+      </c>
+      <c r="Z93" s="10">
+        <v>12</v>
+      </c>
+      <c r="AA93" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A94" s="10">
+        <v>0</v>
+      </c>
+      <c r="B94" s="10">
+        <f t="shared" si="18"/>
+        <v>50.857939999999999</v>
+      </c>
+      <c r="C94" s="10">
+        <v>0</v>
+      </c>
+      <c r="D94" s="10">
+        <f t="shared" si="19"/>
+        <v>335.65033495475927</v>
+      </c>
+      <c r="E94" s="10">
+        <v>13</v>
+      </c>
+      <c r="F94" s="10">
+        <v>9</v>
+      </c>
+      <c r="G94" s="20"/>
+      <c r="H94" s="10">
+        <v>0</v>
+      </c>
+      <c r="I94" s="10">
+        <f t="shared" si="20"/>
+        <v>57.984740000000002</v>
+      </c>
+      <c r="J94" s="10">
+        <v>0</v>
+      </c>
+      <c r="K94" s="10">
+        <f t="shared" si="21"/>
+        <v>317.46974646415549</v>
+      </c>
+      <c r="L94" s="10">
+        <v>13</v>
+      </c>
+      <c r="M94" s="10">
+        <v>9</v>
+      </c>
+      <c r="O94" s="10">
+        <v>0</v>
+      </c>
+      <c r="P94" s="10">
+        <f t="shared" si="22"/>
+        <v>65.111539999999991</v>
+      </c>
+      <c r="Q94" s="10">
+        <v>0</v>
+      </c>
+      <c r="R94" s="10">
+        <f t="shared" si="23"/>
+        <v>309.30669855857798</v>
+      </c>
+      <c r="S94" s="10">
+        <v>13</v>
+      </c>
+      <c r="T94" s="10">
+        <v>9</v>
+      </c>
+      <c r="V94" s="10">
+        <v>0</v>
+      </c>
+      <c r="W94" s="10">
+        <f t="shared" si="24"/>
+        <v>72.238339999999994</v>
+      </c>
+      <c r="X94" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="10">
+        <f t="shared" si="25"/>
+        <v>305.56824080954925</v>
+      </c>
+      <c r="Z94" s="10">
+        <v>13</v>
+      </c>
+      <c r="AA94" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A95" s="10">
+        <v>0</v>
+      </c>
+      <c r="B95" s="10">
+        <f t="shared" si="18"/>
+        <v>50.857939999999999</v>
+      </c>
+      <c r="C95" s="10">
+        <v>0</v>
+      </c>
+      <c r="D95" s="10">
+        <f t="shared" si="19"/>
+        <v>335.65033495475927</v>
+      </c>
+      <c r="E95" s="10">
+        <v>14</v>
+      </c>
+      <c r="F95" s="10">
+        <v>10</v>
+      </c>
+      <c r="G95" s="20"/>
+      <c r="H95" s="10">
+        <v>0</v>
+      </c>
+      <c r="I95" s="10">
+        <f t="shared" si="20"/>
+        <v>57.984740000000002</v>
+      </c>
+      <c r="J95" s="10">
+        <v>0</v>
+      </c>
+      <c r="K95" s="10">
+        <f t="shared" si="21"/>
+        <v>317.46974646415549</v>
+      </c>
+      <c r="L95" s="10">
+        <v>14</v>
+      </c>
+      <c r="M95" s="10">
+        <v>10</v>
+      </c>
+      <c r="O95" s="10">
+        <v>0</v>
+      </c>
+      <c r="P95" s="10">
+        <f t="shared" si="22"/>
+        <v>65.111539999999991</v>
+      </c>
+      <c r="Q95" s="10">
+        <v>0</v>
+      </c>
+      <c r="R95" s="10">
+        <f t="shared" si="23"/>
+        <v>309.30669855857798</v>
+      </c>
+      <c r="S95" s="10">
+        <v>14</v>
+      </c>
+      <c r="T95" s="10">
+        <v>10</v>
+      </c>
+      <c r="V95" s="10">
+        <v>0</v>
+      </c>
+      <c r="W95" s="10">
+        <f t="shared" si="24"/>
+        <v>72.238339999999994</v>
+      </c>
+      <c r="X95" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y95" s="10">
+        <f t="shared" si="25"/>
+        <v>305.56824080954925</v>
+      </c>
+      <c r="Z95" s="10">
+        <v>14</v>
+      </c>
+      <c r="AA95" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A96" s="10">
+        <v>0</v>
+      </c>
+      <c r="B96" s="10">
+        <f t="shared" si="18"/>
+        <v>50.857939999999999</v>
+      </c>
+      <c r="C96" s="10">
+        <v>0</v>
+      </c>
+      <c r="D96" s="10">
+        <f t="shared" si="19"/>
+        <v>335.65033495475927</v>
+      </c>
+      <c r="E96" s="10">
+        <v>15</v>
+      </c>
+      <c r="F96" s="10">
+        <v>11</v>
+      </c>
+      <c r="G96" s="20"/>
+      <c r="H96" s="10">
+        <v>0</v>
+      </c>
+      <c r="I96" s="10">
+        <f t="shared" si="20"/>
+        <v>57.984740000000002</v>
+      </c>
+      <c r="J96" s="10">
+        <v>0</v>
+      </c>
+      <c r="K96" s="10">
+        <f t="shared" si="21"/>
+        <v>317.46974646415549</v>
+      </c>
+      <c r="L96" s="10">
+        <v>15</v>
+      </c>
+      <c r="M96" s="10">
+        <v>11</v>
+      </c>
+      <c r="O96" s="10">
+        <v>0</v>
+      </c>
+      <c r="P96" s="10">
+        <f t="shared" si="22"/>
+        <v>65.111539999999991</v>
+      </c>
+      <c r="Q96" s="10">
+        <v>0</v>
+      </c>
+      <c r="R96" s="10">
+        <f t="shared" si="23"/>
+        <v>309.30669855857798</v>
+      </c>
+      <c r="S96" s="10">
+        <v>15</v>
+      </c>
+      <c r="T96" s="10">
+        <v>11</v>
+      </c>
+      <c r="V96" s="10">
+        <v>0</v>
+      </c>
+      <c r="W96" s="10">
+        <f t="shared" si="24"/>
+        <v>72.238339999999994</v>
+      </c>
+      <c r="X96" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="10">
+        <f t="shared" si="25"/>
+        <v>305.56824080954925</v>
+      </c>
+      <c r="Z96" s="10">
+        <v>15</v>
+      </c>
+      <c r="AA96" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A97" s="10">
+        <v>0</v>
+      </c>
+      <c r="B97" s="10">
+        <f t="shared" si="18"/>
+        <v>50.857939999999999</v>
+      </c>
+      <c r="C97" s="10">
+        <v>0</v>
+      </c>
+      <c r="D97" s="10">
+        <f t="shared" si="19"/>
+        <v>335.65033495475927</v>
+      </c>
+      <c r="E97" s="10">
+        <v>16</v>
+      </c>
+      <c r="F97" s="10">
+        <v>12</v>
+      </c>
+      <c r="G97" s="20"/>
+      <c r="H97" s="10">
+        <v>0</v>
+      </c>
+      <c r="I97" s="10">
+        <f t="shared" si="20"/>
+        <v>57.984740000000002</v>
+      </c>
+      <c r="J97" s="10">
+        <v>0</v>
+      </c>
+      <c r="K97" s="10">
+        <f t="shared" si="21"/>
+        <v>317.46974646415549</v>
+      </c>
+      <c r="L97" s="10">
+        <v>16</v>
+      </c>
+      <c r="M97" s="10">
+        <v>12</v>
+      </c>
+      <c r="O97" s="10">
+        <v>0</v>
+      </c>
+      <c r="P97" s="10">
+        <f t="shared" si="22"/>
+        <v>65.111539999999991</v>
+      </c>
+      <c r="Q97" s="10">
+        <v>0</v>
+      </c>
+      <c r="R97" s="10">
+        <f t="shared" si="23"/>
+        <v>309.30669855857798</v>
+      </c>
+      <c r="S97" s="10">
+        <v>16</v>
+      </c>
+      <c r="T97" s="10">
+        <v>12</v>
+      </c>
+      <c r="V97" s="10">
+        <v>0</v>
+      </c>
+      <c r="W97" s="10">
+        <f t="shared" si="24"/>
+        <v>72.238339999999994</v>
+      </c>
+      <c r="X97" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="10">
+        <f t="shared" si="25"/>
+        <v>305.56824080954925</v>
+      </c>
+      <c r="Z97" s="10">
+        <v>16</v>
+      </c>
+      <c r="AA97" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A98" s="10">
+        <v>0</v>
+      </c>
+      <c r="B98" s="10">
+        <f t="shared" si="18"/>
+        <v>50.857939999999999</v>
+      </c>
+      <c r="C98" s="10">
+        <v>0</v>
+      </c>
+      <c r="D98" s="10">
+        <f t="shared" si="19"/>
+        <v>335.65033495475927</v>
+      </c>
+      <c r="E98" s="10">
+        <v>17</v>
+      </c>
+      <c r="F98" s="10">
+        <v>13</v>
+      </c>
+      <c r="G98" s="20"/>
+      <c r="H98" s="10">
+        <v>0</v>
+      </c>
+      <c r="I98" s="10">
+        <f t="shared" si="20"/>
+        <v>57.984740000000002</v>
+      </c>
+      <c r="J98" s="10">
+        <v>0</v>
+      </c>
+      <c r="K98" s="10">
+        <f t="shared" si="21"/>
+        <v>317.46974646415549</v>
+      </c>
+      <c r="L98" s="10">
+        <v>17</v>
+      </c>
+      <c r="M98" s="10">
+        <v>13</v>
+      </c>
+      <c r="O98" s="10">
+        <v>0</v>
+      </c>
+      <c r="P98" s="10">
+        <f t="shared" si="22"/>
+        <v>65.111539999999991</v>
+      </c>
+      <c r="Q98" s="10">
+        <v>0</v>
+      </c>
+      <c r="R98" s="10">
+        <f t="shared" si="23"/>
+        <v>309.30669855857798</v>
+      </c>
+      <c r="S98" s="10">
+        <v>17</v>
+      </c>
+      <c r="T98" s="10">
+        <v>13</v>
+      </c>
+      <c r="V98" s="10">
+        <v>0</v>
+      </c>
+      <c r="W98" s="10">
+        <f t="shared" si="24"/>
+        <v>72.238339999999994</v>
+      </c>
+      <c r="X98" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="10">
+        <f t="shared" si="25"/>
+        <v>305.56824080954925</v>
+      </c>
+      <c r="Z98" s="10">
+        <v>17</v>
+      </c>
+      <c r="AA98" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A99" s="10">
+        <v>0</v>
+      </c>
+      <c r="B99" s="10">
+        <f t="shared" si="18"/>
+        <v>50.857939999999999</v>
+      </c>
+      <c r="C99" s="10">
+        <v>0</v>
+      </c>
+      <c r="D99" s="10">
+        <f t="shared" si="19"/>
+        <v>335.65033495475927</v>
+      </c>
+      <c r="E99" s="10">
+        <v>18</v>
+      </c>
+      <c r="F99" s="10">
+        <v>14</v>
+      </c>
+      <c r="G99" s="20"/>
+      <c r="H99" s="10">
+        <v>0</v>
+      </c>
+      <c r="I99" s="10">
+        <f t="shared" si="20"/>
+        <v>57.984740000000002</v>
+      </c>
+      <c r="J99" s="10">
+        <v>0</v>
+      </c>
+      <c r="K99" s="10">
+        <f t="shared" si="21"/>
+        <v>317.46974646415549</v>
+      </c>
+      <c r="L99" s="10">
+        <v>18</v>
+      </c>
+      <c r="M99" s="10">
+        <v>14</v>
+      </c>
+      <c r="O99" s="10">
+        <v>0</v>
+      </c>
+      <c r="P99" s="10">
+        <f t="shared" si="22"/>
+        <v>65.111539999999991</v>
+      </c>
+      <c r="Q99" s="10">
+        <v>0</v>
+      </c>
+      <c r="R99" s="10">
+        <f t="shared" si="23"/>
+        <v>309.30669855857798</v>
+      </c>
+      <c r="S99" s="10">
+        <v>18</v>
+      </c>
+      <c r="T99" s="10">
+        <v>14</v>
+      </c>
+      <c r="V99" s="10">
+        <v>0</v>
+      </c>
+      <c r="W99" s="10">
+        <f t="shared" si="24"/>
+        <v>72.238339999999994</v>
+      </c>
+      <c r="X99" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="10">
+        <f t="shared" si="25"/>
+        <v>305.56824080954925</v>
+      </c>
+      <c r="Z99" s="10">
+        <v>18</v>
+      </c>
+      <c r="AA99" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A100" s="10">
+        <v>0</v>
+      </c>
+      <c r="B100" s="10">
+        <f t="shared" si="18"/>
+        <v>50.857939999999999</v>
+      </c>
+      <c r="C100" s="10">
+        <v>0</v>
+      </c>
+      <c r="D100" s="10">
+        <f t="shared" si="19"/>
+        <v>335.65033495475927</v>
+      </c>
+      <c r="E100" s="10">
+        <v>19</v>
+      </c>
+      <c r="F100" s="10">
+        <v>15</v>
+      </c>
+      <c r="G100" s="20"/>
+      <c r="H100" s="10">
+        <v>0</v>
+      </c>
+      <c r="I100" s="10">
+        <f t="shared" si="20"/>
+        <v>57.984740000000002</v>
+      </c>
+      <c r="J100" s="10">
+        <v>0</v>
+      </c>
+      <c r="K100" s="10">
+        <f t="shared" si="21"/>
+        <v>317.46974646415549</v>
+      </c>
+      <c r="L100" s="10">
+        <v>19</v>
+      </c>
+      <c r="M100" s="10">
+        <v>15</v>
+      </c>
+      <c r="O100" s="10">
+        <v>0</v>
+      </c>
+      <c r="P100" s="10">
+        <f t="shared" si="22"/>
+        <v>65.111539999999991</v>
+      </c>
+      <c r="Q100" s="10">
+        <v>0</v>
+      </c>
+      <c r="R100" s="10">
+        <f t="shared" si="23"/>
+        <v>309.30669855857798</v>
+      </c>
+      <c r="S100" s="10">
+        <v>19</v>
+      </c>
+      <c r="T100" s="10">
+        <v>15</v>
+      </c>
+      <c r="V100" s="10">
+        <v>0</v>
+      </c>
+      <c r="W100" s="10">
+        <f t="shared" si="24"/>
+        <v>72.238339999999994</v>
+      </c>
+      <c r="X100" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="10">
+        <f t="shared" si="25"/>
+        <v>305.56824080954925</v>
+      </c>
+      <c r="Z100" s="10">
+        <v>19</v>
+      </c>
+      <c r="AA100" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A101" s="10">
+        <v>0</v>
+      </c>
+      <c r="B101" s="10">
+        <f t="shared" si="18"/>
+        <v>50.857939999999999</v>
+      </c>
+      <c r="C101" s="10">
+        <v>0</v>
+      </c>
+      <c r="D101" s="10">
+        <f t="shared" si="19"/>
+        <v>335.65033495475927</v>
+      </c>
+      <c r="E101" s="10">
+        <v>20</v>
+      </c>
+      <c r="F101" s="10">
+        <v>16</v>
+      </c>
+      <c r="G101" s="20"/>
+      <c r="H101" s="10">
+        <v>0</v>
+      </c>
+      <c r="I101" s="10">
+        <f t="shared" si="20"/>
+        <v>57.984740000000002</v>
+      </c>
+      <c r="J101" s="10">
+        <v>0</v>
+      </c>
+      <c r="K101" s="10">
+        <f t="shared" si="21"/>
+        <v>317.46974646415549</v>
+      </c>
+      <c r="L101" s="10">
+        <v>20</v>
+      </c>
+      <c r="M101" s="10">
+        <v>16</v>
+      </c>
+      <c r="O101" s="10">
+        <v>0</v>
+      </c>
+      <c r="P101" s="10">
+        <f t="shared" si="22"/>
+        <v>65.111539999999991</v>
+      </c>
+      <c r="Q101" s="10">
+        <v>0</v>
+      </c>
+      <c r="R101" s="10">
+        <f t="shared" si="23"/>
+        <v>309.30669855857798</v>
+      </c>
+      <c r="S101" s="10">
+        <v>20</v>
+      </c>
+      <c r="T101" s="10">
+        <v>16</v>
+      </c>
+      <c r="V101" s="10">
+        <v>0</v>
+      </c>
+      <c r="W101" s="10">
+        <f t="shared" si="24"/>
+        <v>72.238339999999994</v>
+      </c>
+      <c r="X101" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="10">
+        <f t="shared" si="25"/>
+        <v>305.56824080954925</v>
+      </c>
+      <c r="Z101" s="10">
+        <v>20</v>
+      </c>
+      <c r="AA101" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A102" s="10">
+        <v>0</v>
+      </c>
+      <c r="B102" s="10">
+        <f t="shared" si="18"/>
+        <v>50.857939999999999</v>
+      </c>
+      <c r="C102" s="10">
+        <v>0</v>
+      </c>
+      <c r="D102" s="10">
+        <f t="shared" si="19"/>
+        <v>335.65033495475927</v>
+      </c>
+      <c r="E102" s="10">
+        <v>21</v>
+      </c>
+      <c r="F102" s="10">
+        <v>17</v>
+      </c>
+      <c r="G102" s="20"/>
+      <c r="H102" s="10">
+        <v>0</v>
+      </c>
+      <c r="I102" s="10">
+        <f t="shared" si="20"/>
+        <v>57.984740000000002</v>
+      </c>
+      <c r="J102" s="10">
+        <v>0</v>
+      </c>
+      <c r="K102" s="10">
+        <f t="shared" si="21"/>
+        <v>317.46974646415549</v>
+      </c>
+      <c r="L102" s="10">
+        <v>21</v>
+      </c>
+      <c r="M102" s="10">
+        <v>17</v>
+      </c>
+      <c r="O102" s="10">
+        <v>0</v>
+      </c>
+      <c r="P102" s="10">
+        <f t="shared" si="22"/>
+        <v>65.111539999999991</v>
+      </c>
+      <c r="Q102" s="10">
+        <v>0</v>
+      </c>
+      <c r="R102" s="10">
+        <f t="shared" si="23"/>
+        <v>309.30669855857798</v>
+      </c>
+      <c r="S102" s="10">
+        <v>21</v>
+      </c>
+      <c r="T102" s="10">
+        <v>17</v>
+      </c>
+      <c r="V102" s="10">
+        <v>0</v>
+      </c>
+      <c r="W102" s="10">
+        <f t="shared" si="24"/>
+        <v>72.238339999999994</v>
+      </c>
+      <c r="X102" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="10">
+        <f t="shared" si="25"/>
+        <v>305.56824080954925</v>
+      </c>
+      <c r="Z102" s="10">
+        <v>21</v>
+      </c>
+      <c r="AA102" s="10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="103" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A103" s="10">
+        <v>0</v>
+      </c>
+      <c r="B103" s="10">
+        <f t="shared" si="18"/>
+        <v>50.857939999999999</v>
+      </c>
+      <c r="C103" s="10">
+        <v>0</v>
+      </c>
+      <c r="D103" s="10">
+        <f t="shared" si="19"/>
+        <v>335.65033495475927</v>
+      </c>
+      <c r="E103" s="10">
+        <v>22</v>
+      </c>
+      <c r="F103" s="10">
+        <v>18</v>
+      </c>
+      <c r="G103" s="20"/>
+      <c r="H103" s="10">
+        <v>0</v>
+      </c>
+      <c r="I103" s="10">
+        <f t="shared" si="20"/>
+        <v>57.984740000000002</v>
+      </c>
+      <c r="J103" s="10">
+        <v>0</v>
+      </c>
+      <c r="K103" s="10">
+        <f t="shared" si="21"/>
+        <v>317.46974646415549</v>
+      </c>
+      <c r="L103" s="10">
+        <v>22</v>
+      </c>
+      <c r="M103" s="10">
+        <v>18</v>
+      </c>
+      <c r="O103" s="10">
+        <v>0</v>
+      </c>
+      <c r="P103" s="10">
+        <f t="shared" si="22"/>
+        <v>65.111539999999991</v>
+      </c>
+      <c r="Q103" s="10">
+        <v>0</v>
+      </c>
+      <c r="R103" s="10">
+        <f t="shared" si="23"/>
+        <v>309.30669855857798</v>
+      </c>
+      <c r="S103" s="10">
+        <v>22</v>
+      </c>
+      <c r="T103" s="10">
+        <v>18</v>
+      </c>
+      <c r="V103" s="10">
+        <v>0</v>
+      </c>
+      <c r="W103" s="10">
+        <f t="shared" si="24"/>
+        <v>72.238339999999994</v>
+      </c>
+      <c r="X103" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y103" s="10">
+        <f t="shared" si="25"/>
+        <v>305.56824080954925</v>
+      </c>
+      <c r="Z103" s="10">
+        <v>22</v>
+      </c>
+      <c r="AA103" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A104" s="10">
+        <v>0</v>
+      </c>
+      <c r="B104" s="10">
+        <f t="shared" si="18"/>
+        <v>50.857939999999999</v>
+      </c>
+      <c r="C104" s="10">
+        <v>0</v>
+      </c>
+      <c r="D104" s="10">
+        <f t="shared" si="19"/>
+        <v>335.65033495475927</v>
+      </c>
+      <c r="E104" s="10">
+        <v>23</v>
+      </c>
+      <c r="F104" s="10">
+        <v>19</v>
+      </c>
+      <c r="G104" s="20"/>
+      <c r="H104" s="10">
+        <v>0</v>
+      </c>
+      <c r="I104" s="10">
+        <f t="shared" si="20"/>
+        <v>57.984740000000002</v>
+      </c>
+      <c r="J104" s="10">
+        <v>0</v>
+      </c>
+      <c r="K104" s="10">
+        <f t="shared" si="21"/>
+        <v>317.46974646415549</v>
+      </c>
+      <c r="L104" s="10">
+        <v>23</v>
+      </c>
+      <c r="M104" s="10">
+        <v>19</v>
+      </c>
+      <c r="O104" s="10">
+        <v>0</v>
+      </c>
+      <c r="P104" s="10">
+        <f t="shared" si="22"/>
+        <v>65.111539999999991</v>
+      </c>
+      <c r="Q104" s="10">
+        <v>0</v>
+      </c>
+      <c r="R104" s="10">
+        <f t="shared" si="23"/>
+        <v>309.30669855857798</v>
+      </c>
+      <c r="S104" s="10">
+        <v>23</v>
+      </c>
+      <c r="T104" s="10">
+        <v>19</v>
+      </c>
+      <c r="V104" s="10">
+        <v>0</v>
+      </c>
+      <c r="W104" s="10">
+        <f t="shared" si="24"/>
+        <v>72.238339999999994</v>
+      </c>
+      <c r="X104" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y104" s="10">
+        <f t="shared" si="25"/>
+        <v>305.56824080954925</v>
+      </c>
+      <c r="Z104" s="10">
+        <v>23</v>
+      </c>
+      <c r="AA104" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="105" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A105" s="10">
+        <v>0</v>
+      </c>
+      <c r="B105" s="10">
+        <f t="shared" si="18"/>
+        <v>50.857939999999999</v>
+      </c>
+      <c r="C105" s="10">
+        <f>B75</f>
+        <v>3051.4764</v>
+      </c>
+      <c r="D105" s="10">
+        <f t="shared" si="19"/>
+        <v>335.65033495475927</v>
+      </c>
+      <c r="E105" s="10">
+        <v>24</v>
+      </c>
+      <c r="F105" s="10">
+        <v>20</v>
+      </c>
+      <c r="G105" s="20"/>
+      <c r="H105" s="10">
+        <v>0</v>
+      </c>
+      <c r="I105" s="10">
+        <f t="shared" si="20"/>
+        <v>57.984740000000002</v>
+      </c>
+      <c r="J105" s="10">
+        <f>I75</f>
+        <v>3479.0844000000002</v>
+      </c>
+      <c r="K105" s="10">
+        <f t="shared" si="21"/>
+        <v>317.46974646415549</v>
+      </c>
+      <c r="L105" s="10">
+        <v>24</v>
+      </c>
+      <c r="M105" s="10">
+        <v>20</v>
+      </c>
+      <c r="O105" s="10">
+        <v>0</v>
+      </c>
+      <c r="P105" s="10">
+        <f t="shared" si="22"/>
+        <v>65.111539999999991</v>
+      </c>
+      <c r="Q105" s="10">
+        <f>P75</f>
+        <v>3906.6923999999995</v>
+      </c>
+      <c r="R105" s="10">
+        <f t="shared" si="23"/>
+        <v>309.30669855857798</v>
+      </c>
+      <c r="S105" s="10">
+        <v>24</v>
+      </c>
+      <c r="T105" s="10">
+        <v>20</v>
+      </c>
+      <c r="V105" s="10">
+        <v>0</v>
+      </c>
+      <c r="W105" s="10">
+        <f t="shared" si="24"/>
+        <v>72.238339999999994</v>
+      </c>
+      <c r="X105" s="10">
+        <f>W75</f>
+        <v>4334.3004000000001</v>
+      </c>
+      <c r="Y105" s="10">
+        <f t="shared" si="25"/>
+        <v>305.56824080954925</v>
+      </c>
+      <c r="Z105" s="10">
+        <v>24</v>
+      </c>
+      <c r="AA105" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="G106" s="20"/>
+    </row>
+    <row r="107" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A107" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B107" s="15"/>
+      <c r="C107" s="15"/>
+      <c r="G107" s="20"/>
+      <c r="H107" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I107" s="15"/>
+      <c r="J107" s="15"/>
+      <c r="O107" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="P107" s="15"/>
+      <c r="Q107" s="15"/>
+      <c r="V107" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="W107" s="15"/>
+      <c r="X107" s="15"/>
+    </row>
+    <row r="108" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
+      <c r="B108" s="13">
+        <f>NPV(5%,A82:A85)</f>
+        <v>4508.4934495914767</v>
+      </c>
+      <c r="C108" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G108" s="20"/>
+      <c r="H108" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I108" s="13">
+        <f>NPV(5%,H82:H85)</f>
+        <v>5140.2754509180841</v>
+      </c>
+      <c r="J108" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="O108" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P108" s="13">
+        <f>NPV(5%,O82:O85)</f>
+        <v>5772.0574522446923</v>
+      </c>
+      <c r="Q108" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="V108" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W108" s="13">
+        <f>NPV(5%,V82:V85)</f>
+        <v>6403.8394535712996</v>
+      </c>
+      <c r="X108" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="109" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B109" s="13">
+        <f>NPV(5%,B82:B85,B86:B105)</f>
+        <v>521.43075847473244</v>
+      </c>
+      <c r="C109" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G109" s="20"/>
+      <c r="H109" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I109" s="13">
+        <f>NPV(5%,I82:I85,I86:I105)</f>
+        <v>594.4996387616203</v>
+      </c>
+      <c r="J109" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="O109" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P109" s="13">
+        <f>NPV(5%,P82:P85,P86:P105)</f>
+        <v>667.56851904850782</v>
+      </c>
+      <c r="Q109" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="V109" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W109" s="13">
+        <f>NPV(5%,W82:W85,W86:W105)</f>
+        <v>740.63739933539591</v>
+      </c>
+      <c r="X109" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="110" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B110" s="13">
+        <f>NPV(5%,C82:C85,C86:C104,C105)</f>
+        <v>946.16491062482362</v>
+      </c>
+      <c r="C110" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G110" s="20"/>
+      <c r="H110" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I110" s="13">
+        <f>NPV(5%,J82:J85,J86:J104,J105)</f>
+        <v>1078.7524296049669</v>
+      </c>
+      <c r="J110" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="O110" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P110" s="13">
+        <f>NPV(5%,Q82:Q85,Q86:Q104,Q105)</f>
+        <v>1211.3399485851103</v>
+      </c>
+      <c r="Q110" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="V110" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="W110" s="13">
+        <f>NPV(5%,X82:X85,X86:X104,X105)</f>
+        <v>1343.9274675652539</v>
+      </c>
+      <c r="X110" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="111" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B111" s="13">
+        <f>NPV(5%,D82:D85,D86:D105)</f>
+        <v>3441.3192657382128</v>
+      </c>
+      <c r="C111" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G111" s="20"/>
+      <c r="H111" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I111" s="13">
+        <f>NPV(5%,K82:K85,K86:K105)</f>
+        <v>3254.9193044701697</v>
+      </c>
+      <c r="J111" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="O111" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P111" s="13">
+        <f>NPV(5%,R82:R85,R86:R105)</f>
+        <v>3171.2260943072943</v>
+      </c>
+      <c r="Q111" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="V111" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="W111" s="13">
+        <f>NPV(5%,Y82:Y85,Y86:Y105)</f>
+        <v>3132.8968411051042</v>
+      </c>
+      <c r="X111" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="112" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A112" s="1"/>
+      <c r="B112" s="4"/>
+      <c r="C112" s="11"/>
+      <c r="G112" s="20"/>
+      <c r="H112" s="1"/>
+      <c r="I112" s="4"/>
+      <c r="J112" s="11"/>
+      <c r="O112" s="1"/>
+      <c r="P112" s="4"/>
+      <c r="Q112" s="11"/>
+      <c r="V112" s="1"/>
+      <c r="W112" s="4"/>
+      <c r="X112" s="11"/>
+    </row>
+    <row r="113" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B60" s="13">
-        <f>NPV(5%,B33:B36,B37:B56)</f>
-        <v>525.53183499080615</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B61" s="13">
-        <f>NPV(5%,C33:C36,C37:C55,C56)</f>
-        <v>953.60654047160722</v>
-      </c>
-      <c r="C61" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B62" s="13">
-        <f>NPV(5%,D33:D36,D37:D56)</f>
-        <v>14810.473545380462</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="1"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="11"/>
-    </row>
-    <row r="64" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
+      <c r="B113" s="13">
+        <f>B108+B109</f>
+        <v>5029.9242080662088</v>
+      </c>
+      <c r="C113" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G113" s="20"/>
+      <c r="H113" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I113" s="13">
+        <f>I108+I109</f>
+        <v>5734.7750896797043</v>
+      </c>
+      <c r="J113" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="O113" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P113" s="13">
+        <f>P108+P109</f>
+        <v>6439.6259712932006</v>
+      </c>
+      <c r="Q113" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="V113" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W113" s="13">
+        <f>W108+W109</f>
+        <v>7144.4768529066951</v>
+      </c>
+      <c r="X113" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="114" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B64" s="13">
-        <f>B59+B60</f>
-        <v>5069.4847896239062</v>
-      </c>
-      <c r="C64" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
+      <c r="B114" s="13">
+        <f>B113-B110</f>
+        <v>4083.7592974413851</v>
+      </c>
+      <c r="C114" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G114" s="20"/>
+      <c r="H114" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I114" s="13">
+        <f>I113-I110</f>
+        <v>4656.0226600747374</v>
+      </c>
+      <c r="J114" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="O114" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P114" s="13">
+        <f>P113-P110</f>
+        <v>5228.2860227080901</v>
+      </c>
+      <c r="Q114" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="V114" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W114" s="13">
+        <f>W113-W110</f>
+        <v>5800.5493853414409</v>
+      </c>
+      <c r="X114" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="115" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B65" s="13">
-        <f>B64-B61</f>
-        <v>4115.8782491522988</v>
-      </c>
-      <c r="C65" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
+      <c r="B115" s="13">
+        <f>B114+B111</f>
+        <v>7525.0785631795979</v>
+      </c>
+      <c r="C115" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B66" s="13">
-        <f>B65+B62</f>
-        <v>18926.351794532762</v>
-      </c>
-      <c r="C66" s="11" t="s">
-        <v>35</v>
-      </c>
+      <c r="G115" s="20"/>
+      <c r="H115" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I115" s="13">
+        <f>I114+I111</f>
+        <v>7910.941964544907</v>
+      </c>
+      <c r="J115" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="O115" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P115" s="13">
+        <f>P114+P111</f>
+        <v>8399.5121170153834</v>
+      </c>
+      <c r="Q115" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="V115" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="W115" s="13">
+        <f>W114+W111</f>
+        <v>8933.4462264465456</v>
+      </c>
+      <c r="X115" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="116" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="G116" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="38">
+    <mergeCell ref="V70:X70"/>
+    <mergeCell ref="V80:X80"/>
+    <mergeCell ref="V107:X107"/>
+    <mergeCell ref="AC21:AE21"/>
+    <mergeCell ref="AC22:AE22"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="AC59:AE59"/>
+    <mergeCell ref="V21:X21"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="V32:X32"/>
+    <mergeCell ref="V59:X59"/>
+    <mergeCell ref="V69:X69"/>
+    <mergeCell ref="H70:J70"/>
+    <mergeCell ref="H80:J80"/>
+    <mergeCell ref="H107:J107"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="O32:Q32"/>
+    <mergeCell ref="O59:Q59"/>
+    <mergeCell ref="O69:Q69"/>
+    <mergeCell ref="O70:Q70"/>
+    <mergeCell ref="O80:Q80"/>
+    <mergeCell ref="O107:Q107"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="H69:J69"/>
+    <mergeCell ref="A70:C70"/>
     <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="A107:C107"/>
+    <mergeCell ref="A22:C22"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A59:C59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/hydroelectric_power/TD/TD2/Optimisation_spreadsheet.xlsx
+++ b/hydroelectric_power/TD/TD2/Optimisation_spreadsheet.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="42">
   <si>
     <t>Hyraulic loss coef</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>lp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operational costs </t>
   </si>
 </sst>
 </file>
@@ -274,7 +277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -331,9 +334,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="8" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -345,6 +345,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -481,7 +496,7 @@
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
-                <a:prstDash val="sysDot"/>
+                <a:prstDash val="solid"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -586,7 +601,7 @@
                 <a:solidFill>
                   <a:schemeClr val="accent2"/>
                 </a:solidFill>
-                <a:prstDash val="sysDot"/>
+                <a:prstDash val="solid"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -692,7 +707,7 @@
                 <a:solidFill>
                   <a:schemeClr val="accent3"/>
                 </a:solidFill>
-                <a:prstDash val="sysDot"/>
+                <a:prstDash val="solid"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -979,6 +994,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -1106,7 +1122,7 @@
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
-                <a:prstDash val="sysDot"/>
+                <a:prstDash val="solid"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1205,7 +1221,7 @@
                 <a:solidFill>
                   <a:schemeClr val="accent2"/>
                 </a:solidFill>
-                <a:prstDash val="sysDot"/>
+                <a:prstDash val="solid"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1304,7 +1320,7 @@
                 <a:solidFill>
                   <a:schemeClr val="accent3"/>
                 </a:solidFill>
-                <a:prstDash val="sysDot"/>
+                <a:prstDash val="solid"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -2505,7 +2521,7 @@
                 <a:solidFill>
                   <a:schemeClr val="accent3"/>
                 </a:solidFill>
-                <a:prstDash val="sysDot"/>
+                <a:prstDash val="solid"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -2516,8 +2532,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.3940735510164141E-2"/>
-                  <c:y val="-0.28481748780654892"/>
+                  <c:x val="-7.002382616255716E-2"/>
+                  <c:y val="-0.1132991766685492"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -3748,7 +3764,7 @@
                 <a:solidFill>
                   <a:schemeClr val="accent3"/>
                 </a:solidFill>
-                <a:prstDash val="sysDot"/>
+                <a:prstDash val="solid"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -3757,7 +3773,12 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.2102951591364733E-3"/>
+                  <c:y val="0.34623365785082311"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -8761,6 +8782,44 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0</cdr:x>
+      <cdr:y>0</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:pic>
+      <cdr:nvPicPr>
+        <cdr:cNvPr id="2" name="chart"/>
+        <cdr:cNvPicPr>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </cdr:cNvPicPr>
+      </cdr:nvPicPr>
+      <cdr:blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </cdr:blipFill>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="0" y="0"/>
+          <a:ext cx="4541520" cy="2682240"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+    </cdr:pic>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
@@ -9026,8 +9085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AH116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y9" zoomScale="50" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AM81" sqref="AM81"/>
+    <sheetView tabSelected="1" topLeftCell="AO1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AX18" sqref="AX18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9077,11 +9136,11 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
     </row>
     <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
@@ -9293,11 +9352,11 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
     </row>
     <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
@@ -9473,60 +9532,60 @@
       </c>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
       <c r="G21" s="15"/>
-      <c r="H21" s="25" t="s">
+      <c r="H21" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="O21" s="25" t="s">
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="O21" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="25"/>
-      <c r="V21" s="25" t="s">
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24"/>
+      <c r="V21" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="W21" s="25"/>
-      <c r="X21" s="25"/>
-      <c r="AC21" s="25" t="s">
+      <c r="W21" s="24"/>
+      <c r="X21" s="24"/>
+      <c r="AC21" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="AD21" s="25"/>
-      <c r="AE21" s="25"/>
+      <c r="AD21" s="24"/>
+      <c r="AE21" s="24"/>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
       <c r="G22" s="15"/>
-      <c r="H22" s="23" t="s">
+      <c r="H22" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="O22" s="23" t="s">
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="O22" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
-      <c r="V22" s="23" t="s">
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+      <c r="V22" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="W22" s="23"/>
-      <c r="X22" s="23"/>
-      <c r="AC22" s="23" t="s">
+      <c r="W22" s="22"/>
+      <c r="X22" s="22"/>
+      <c r="AC22" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="AD22" s="23"/>
-      <c r="AE22" s="23"/>
+      <c r="AD22" s="22"/>
+      <c r="AE22" s="22"/>
     </row>
     <row r="23" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
@@ -10041,39 +10100,39 @@
       <c r="G31" s="15"/>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
       <c r="G32" s="15"/>
-      <c r="H32" s="23" t="s">
+      <c r="H32" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="O32" s="23" t="s">
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="O32" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="P32" s="23"/>
-      <c r="Q32" s="23"/>
-      <c r="V32" s="23" t="s">
+      <c r="P32" s="22"/>
+      <c r="Q32" s="22"/>
+      <c r="V32" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="W32" s="23"/>
-      <c r="X32" s="23"/>
-      <c r="AC32" s="23" t="s">
+      <c r="W32" s="22"/>
+      <c r="X32" s="22"/>
+      <c r="AC32" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="AD32" s="23"/>
-      <c r="AE32" s="23"/>
+      <c r="AD32" s="22"/>
+      <c r="AE32" s="22"/>
     </row>
     <row r="33" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>7</v>
@@ -12582,42 +12641,42 @@
       <c r="G58" s="15"/>
     </row>
     <row r="59" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A59" s="24" t="s">
+      <c r="A59" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B59" s="24"/>
-      <c r="C59" s="24"/>
+      <c r="B59" s="27"/>
+      <c r="C59" s="27"/>
       <c r="G59" s="15"/>
-      <c r="H59" s="24" t="s">
+      <c r="H59" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="I59" s="24"/>
-      <c r="J59" s="24"/>
-      <c r="O59" s="24" t="s">
+      <c r="I59" s="23"/>
+      <c r="J59" s="23"/>
+      <c r="O59" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="P59" s="24"/>
-      <c r="Q59" s="24"/>
-      <c r="V59" s="24" t="s">
+      <c r="P59" s="23"/>
+      <c r="Q59" s="23"/>
+      <c r="V59" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="W59" s="24"/>
-      <c r="X59" s="24"/>
-      <c r="AC59" s="24" t="s">
+      <c r="W59" s="23"/>
+      <c r="X59" s="23"/>
+      <c r="AC59" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="AD59" s="24"/>
-      <c r="AE59" s="24"/>
+      <c r="AD59" s="23"/>
+      <c r="AE59" s="23"/>
     </row>
     <row r="60" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B60" s="13">
+      <c r="B60" s="28">
         <f>NPV(5%,A34:A37)</f>
         <v>4543.9529546331005</v>
       </c>
-      <c r="C60" s="11" t="s">
+      <c r="C60" s="29" t="s">
         <v>34</v>
       </c>
       <c r="G60" s="15"/>
@@ -12663,14 +12722,14 @@
       </c>
     </row>
     <row r="61" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B61" s="13">
+      <c r="B61" s="28">
         <f>NPV(5%,B34:B37,B38:B57)</f>
         <v>525.53183499080615</v>
       </c>
-      <c r="C61" s="11" t="s">
+      <c r="C61" s="29" t="s">
         <v>34</v>
       </c>
       <c r="G61" s="15"/>
@@ -12716,14 +12775,14 @@
       </c>
     </row>
     <row r="62" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B62" s="13">
+      <c r="B62" s="28">
         <f>NPV(5%,C34:C37,C38:C56,C57)</f>
         <v>953.60654047160722</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="C62" s="29" t="s">
         <v>34</v>
       </c>
       <c r="G62" s="15"/>
@@ -12769,14 +12828,14 @@
       </c>
     </row>
     <row r="63" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B63" s="13">
+      <c r="B63" s="28">
         <f>NPV(5%,D34:D37,D38:D57)</f>
         <v>6109.9518735161691</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="C63" s="29" t="s">
         <v>34</v>
       </c>
       <c r="G63" s="15"/>
@@ -12822,9 +12881,9 @@
       </c>
     </row>
     <row r="64" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A64" s="1"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="11"/>
+      <c r="A64" s="9"/>
+      <c r="B64" s="30"/>
+      <c r="C64" s="29"/>
       <c r="G64" s="15"/>
       <c r="H64" s="1"/>
       <c r="I64" s="4"/>
@@ -12840,14 +12899,14 @@
       <c r="AE64" s="11"/>
     </row>
     <row r="65" spans="1:31" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B65" s="13">
+      <c r="B65" s="28">
         <f>B60+B61</f>
         <v>5069.4847896239062</v>
       </c>
-      <c r="C65" s="11" t="s">
+      <c r="C65" s="29" t="s">
         <v>34</v>
       </c>
       <c r="G65" s="15"/>
@@ -12893,14 +12952,14 @@
       </c>
     </row>
     <row r="66" spans="1:31" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B66" s="13">
+      <c r="B66" s="28">
         <f>B65-B62</f>
         <v>4115.8782491522988</v>
       </c>
-      <c r="C66" s="11" t="s">
+      <c r="C66" s="29" t="s">
         <v>34</v>
       </c>
       <c r="G66" s="15"/>
@@ -12946,14 +13005,14 @@
       </c>
     </row>
     <row r="67" spans="1:31" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B67" s="13">
+      <c r="B67" s="28">
         <f>B66+B63</f>
         <v>10225.830122668467</v>
       </c>
-      <c r="C67" s="11" t="s">
+      <c r="C67" s="29" t="s">
         <v>34</v>
       </c>
       <c r="G67" s="15"/>
@@ -13002,50 +13061,50 @@
       <c r="G68" s="15"/>
     </row>
     <row r="69" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A69" s="26" t="s">
+      <c r="A69" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B69" s="26"/>
-      <c r="C69" s="26"/>
+      <c r="B69" s="25"/>
+      <c r="C69" s="25"/>
       <c r="G69" s="15"/>
-      <c r="H69" s="26" t="s">
+      <c r="H69" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="I69" s="26"/>
-      <c r="J69" s="26"/>
-      <c r="O69" s="26" t="s">
+      <c r="I69" s="25"/>
+      <c r="J69" s="25"/>
+      <c r="O69" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="P69" s="26"/>
-      <c r="Q69" s="26"/>
-      <c r="V69" s="26" t="s">
+      <c r="P69" s="25"/>
+      <c r="Q69" s="25"/>
+      <c r="V69" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="W69" s="26"/>
-      <c r="X69" s="26"/>
+      <c r="W69" s="25"/>
+      <c r="X69" s="25"/>
     </row>
     <row r="70" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A70" s="23" t="s">
+      <c r="A70" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B70" s="23"/>
-      <c r="C70" s="23"/>
+      <c r="B70" s="22"/>
+      <c r="C70" s="22"/>
       <c r="G70" s="15"/>
-      <c r="H70" s="23" t="s">
+      <c r="H70" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="I70" s="23"/>
-      <c r="J70" s="23"/>
-      <c r="O70" s="23" t="s">
+      <c r="I70" s="22"/>
+      <c r="J70" s="22"/>
+      <c r="O70" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="P70" s="23"/>
-      <c r="Q70" s="23"/>
-      <c r="V70" s="23" t="s">
+      <c r="P70" s="22"/>
+      <c r="Q70" s="22"/>
+      <c r="V70" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="W70" s="23"/>
-      <c r="X70" s="23"/>
+      <c r="W70" s="22"/>
+      <c r="X70" s="22"/>
     </row>
     <row r="71" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
@@ -13379,27 +13438,27 @@
       <c r="G79" s="15"/>
     </row>
     <row r="80" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A80" s="23" t="s">
+      <c r="A80" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B80" s="23"/>
-      <c r="C80" s="23"/>
+      <c r="B80" s="22"/>
+      <c r="C80" s="22"/>
       <c r="G80" s="15"/>
-      <c r="H80" s="23" t="s">
+      <c r="H80" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="I80" s="23"/>
-      <c r="J80" s="23"/>
-      <c r="O80" s="23" t="s">
+      <c r="I80" s="22"/>
+      <c r="J80" s="22"/>
+      <c r="O80" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="P80" s="23"/>
-      <c r="Q80" s="23"/>
-      <c r="V80" s="23" t="s">
+      <c r="P80" s="22"/>
+      <c r="Q80" s="22"/>
+      <c r="V80" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="W80" s="23"/>
-      <c r="X80" s="23"/>
+      <c r="W80" s="22"/>
+      <c r="X80" s="22"/>
     </row>
     <row r="81" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="8" t="s">
@@ -15428,27 +15487,27 @@
       <c r="G106" s="15"/>
     </row>
     <row r="107" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A107" s="24" t="s">
+      <c r="A107" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B107" s="24"/>
-      <c r="C107" s="24"/>
+      <c r="B107" s="23"/>
+      <c r="C107" s="23"/>
       <c r="G107" s="15"/>
-      <c r="H107" s="24" t="s">
+      <c r="H107" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="I107" s="24"/>
-      <c r="J107" s="24"/>
-      <c r="O107" s="24" t="s">
+      <c r="I107" s="23"/>
+      <c r="J107" s="23"/>
+      <c r="O107" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="P107" s="24"/>
-      <c r="Q107" s="24"/>
-      <c r="V107" s="24" t="s">
+      <c r="P107" s="23"/>
+      <c r="Q107" s="23"/>
+      <c r="V107" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="W107" s="24"/>
-      <c r="X107" s="24"/>
+      <c r="W107" s="23"/>
+      <c r="X107" s="23"/>
     </row>
     <row r="108" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
@@ -15771,18 +15830,19 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="V70:X70"/>
-    <mergeCell ref="V80:X80"/>
-    <mergeCell ref="V107:X107"/>
-    <mergeCell ref="AC21:AE21"/>
-    <mergeCell ref="AC22:AE22"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="AC59:AE59"/>
-    <mergeCell ref="V21:X21"/>
-    <mergeCell ref="V22:X22"/>
-    <mergeCell ref="V32:X32"/>
-    <mergeCell ref="V59:X59"/>
-    <mergeCell ref="V69:X69"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="A107:C107"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="H70:J70"/>
+    <mergeCell ref="H80:J80"/>
+    <mergeCell ref="H107:J107"/>
     <mergeCell ref="O70:Q70"/>
     <mergeCell ref="O80:Q80"/>
     <mergeCell ref="O107:Q107"/>
@@ -15796,19 +15856,18 @@
     <mergeCell ref="O32:Q32"/>
     <mergeCell ref="O59:Q59"/>
     <mergeCell ref="O69:Q69"/>
-    <mergeCell ref="A80:C80"/>
-    <mergeCell ref="A107:C107"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="H70:J70"/>
-    <mergeCell ref="H80:J80"/>
-    <mergeCell ref="H107:J107"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="V70:X70"/>
+    <mergeCell ref="V80:X80"/>
+    <mergeCell ref="V107:X107"/>
+    <mergeCell ref="AC21:AE21"/>
+    <mergeCell ref="AC22:AE22"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="AC59:AE59"/>
+    <mergeCell ref="V21:X21"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="V32:X32"/>
+    <mergeCell ref="V59:X59"/>
+    <mergeCell ref="V69:X69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
